--- a/Data/EC/NIT-9003313705.xlsx
+++ b/Data/EC/NIT-9003313705.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{04AD2DE5-8FE5-4B19-83D8-F95CE1BE8AFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A30AD38A-0B87-44D9-9893-48DD37AFB640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{46A8F626-9369-40AC-84BE-BCC6C4DE601E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E605D7AD-339F-483E-B640-1FC732C8D6D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="107">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,256 +71,259 @@
     <t>PEDRO LUIS PEREZ DIAZ</t>
   </si>
   <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>9152491</t>
+  </si>
+  <si>
+    <t>JOSE DEL CARMEN ROCHA MORENO</t>
+  </si>
+  <si>
+    <t>9152814</t>
+  </si>
+  <si>
+    <t>ENOC ZABALETA REALES</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>9156563</t>
+  </si>
+  <si>
+    <t>WILBERTO ARIZA LANDERO</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>9152491</t>
-  </si>
-  <si>
-    <t>JOSE DEL CARMEN ROCHA MORENO</t>
-  </si>
-  <si>
-    <t>9152814</t>
-  </si>
-  <si>
-    <t>ENOC ZABALETA REALES</t>
-  </si>
-  <si>
-    <t>9156563</t>
-  </si>
-  <si>
-    <t>WILBERTO ARIZA LANDERO</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -419,7 +422,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -432,9 +437,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -634,23 +637,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -678,10 +681,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -734,7 +737,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7BED2F7-8236-DA1A-82FF-88F65379E427}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{028F57CF-B14F-55AE-203C-14354000C1AF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1085,8 +1088,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB662331-DECC-4303-AC14-13185A6268D1}">
-  <dimension ref="B2:J258"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C12AE399-0CBE-4862-8B05-6802F6A0EB3D}">
+  <dimension ref="B2:J261"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1110,7 +1113,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1155,7 +1158,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1187,12 +1190,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>7849959</v>
+        <v>7949334</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1203,17 +1206,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C13" s="5">
         <v>4</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F13" s="5">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1240,13 +1243,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>100</v>
-      </c>
       <c r="J15" s="14" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1263,7 +1266,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>33125</v>
+        <v>30916</v>
       </c>
       <c r="G16" s="18">
         <v>828116</v>
@@ -1277,16 +1280,16 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>33125</v>
+        <v>30916</v>
       </c>
       <c r="G17" s="18">
         <v>828116</v>
@@ -1300,16 +1303,16 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F18" s="18">
-        <v>33125</v>
+        <v>30916</v>
       </c>
       <c r="G18" s="18">
         <v>828116</v>
@@ -1329,7 +1332,7 @@
         <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F19" s="18">
         <v>33125</v>
@@ -1346,13 +1349,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F20" s="18">
         <v>33125</v>
@@ -1369,10 +1372,10 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E21" s="16" t="s">
         <v>16</v>
@@ -1415,13 +1418,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F23" s="18">
         <v>33125</v>
@@ -1438,13 +1441,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F24" s="18">
         <v>33125</v>
@@ -1467,7 +1470,7 @@
         <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F25" s="18">
         <v>33125</v>
@@ -1484,13 +1487,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F26" s="18">
         <v>33125</v>
@@ -1507,13 +1510,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F27" s="18">
         <v>33125</v>
@@ -1536,7 +1539,7 @@
         <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F28" s="18">
         <v>33125</v>
@@ -1553,13 +1556,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F29" s="18">
         <v>33125</v>
@@ -1576,13 +1579,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F30" s="18">
         <v>33125</v>
@@ -1605,7 +1608,7 @@
         <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F31" s="18">
         <v>33125</v>
@@ -1622,13 +1625,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F32" s="18">
         <v>33125</v>
@@ -1645,13 +1648,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F33" s="18">
         <v>33125</v>
@@ -1674,7 +1677,7 @@
         <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F34" s="18">
         <v>33125</v>
@@ -1691,13 +1694,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F35" s="18">
         <v>33125</v>
@@ -1714,13 +1717,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F36" s="18">
         <v>33125</v>
@@ -1743,7 +1746,7 @@
         <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="F37" s="18">
         <v>33125</v>
@@ -1760,13 +1763,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="F38" s="18">
         <v>33125</v>
@@ -1783,13 +1786,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="F39" s="18">
         <v>33125</v>
@@ -1812,7 +1815,7 @@
         <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="F40" s="18">
         <v>33125</v>
@@ -1829,13 +1832,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="F41" s="18">
         <v>33125</v>
@@ -1852,13 +1855,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="F42" s="18">
         <v>33125</v>
@@ -1881,7 +1884,7 @@
         <v>10</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="F43" s="18">
         <v>33125</v>
@@ -1898,13 +1901,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="F44" s="18">
         <v>33125</v>
@@ -1921,13 +1924,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="F45" s="18">
         <v>33125</v>
@@ -1950,7 +1953,7 @@
         <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="F46" s="18">
         <v>33125</v>
@@ -1967,13 +1970,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="F47" s="18">
         <v>33125</v>
@@ -1990,13 +1993,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="F48" s="18">
         <v>33125</v>
@@ -2019,7 +2022,7 @@
         <v>10</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="F49" s="18">
         <v>33125</v>
@@ -2036,13 +2039,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="F50" s="18">
         <v>33125</v>
@@ -2059,13 +2062,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F51" s="18">
         <v>33125</v>
@@ -2088,7 +2091,7 @@
         <v>10</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="F52" s="18">
         <v>33125</v>
@@ -2105,13 +2108,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="F53" s="18">
         <v>33125</v>
@@ -2128,13 +2131,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="F54" s="18">
         <v>33125</v>
@@ -2157,7 +2160,7 @@
         <v>10</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="F55" s="18">
         <v>33125</v>
@@ -2174,13 +2177,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="F56" s="18">
         <v>33125</v>
@@ -2197,13 +2200,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="F57" s="18">
         <v>33125</v>
@@ -2220,19 +2223,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="F58" s="18">
-        <v>33125</v>
+        <v>35112</v>
       </c>
       <c r="G58" s="18">
-        <v>828116</v>
+        <v>1423500</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2249,7 +2252,7 @@
         <v>10</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="F59" s="18">
         <v>33125</v>
@@ -2266,13 +2269,13 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="F60" s="18">
         <v>33125</v>
@@ -2289,13 +2292,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="F61" s="18">
         <v>33125</v>
@@ -2312,19 +2315,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="F62" s="18">
-        <v>33125</v>
+        <v>35112</v>
       </c>
       <c r="G62" s="18">
-        <v>828116</v>
+        <v>1423500</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2341,7 +2344,7 @@
         <v>10</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="F63" s="18">
         <v>33125</v>
@@ -2358,13 +2361,13 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="F64" s="18">
         <v>33125</v>
@@ -2381,13 +2384,13 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="F65" s="18">
         <v>33125</v>
@@ -2404,19 +2407,19 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="F66" s="18">
-        <v>33125</v>
+        <v>35112</v>
       </c>
       <c r="G66" s="18">
-        <v>828116</v>
+        <v>1423500</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2433,7 +2436,7 @@
         <v>10</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="F67" s="18">
         <v>33125</v>
@@ -2450,13 +2453,13 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="F68" s="18">
         <v>33125</v>
@@ -2473,13 +2476,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="F69" s="18">
         <v>33125</v>
@@ -2502,7 +2505,7 @@
         <v>10</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="F70" s="18">
         <v>33125</v>
@@ -2519,13 +2522,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="F71" s="18">
         <v>33125</v>
@@ -2542,13 +2545,13 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="F72" s="18">
         <v>33125</v>
@@ -2571,7 +2574,7 @@
         <v>10</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F73" s="18">
         <v>33125</v>
@@ -2588,13 +2591,13 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="F74" s="18">
         <v>33125</v>
@@ -2611,13 +2614,13 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="F75" s="18">
         <v>33125</v>
@@ -2640,7 +2643,7 @@
         <v>10</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="F76" s="18">
         <v>33125</v>
@@ -2657,13 +2660,13 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="F77" s="18">
         <v>33125</v>
@@ -2680,13 +2683,13 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="F78" s="18">
         <v>33125</v>
@@ -2709,7 +2712,7 @@
         <v>10</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="F79" s="18">
         <v>33125</v>
@@ -2726,13 +2729,13 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="F80" s="18">
         <v>33125</v>
@@ -2749,13 +2752,13 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="F81" s="18">
         <v>33125</v>
@@ -2778,7 +2781,7 @@
         <v>10</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="F82" s="18">
         <v>33125</v>
@@ -2795,13 +2798,13 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="F83" s="18">
         <v>33125</v>
@@ -2818,13 +2821,13 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="F84" s="18">
         <v>33125</v>
@@ -2847,7 +2850,7 @@
         <v>10</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="F85" s="18">
         <v>33125</v>
@@ -2864,13 +2867,13 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="F86" s="18">
         <v>33125</v>
@@ -2887,13 +2890,13 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="F87" s="18">
         <v>33125</v>
@@ -2916,7 +2919,7 @@
         <v>10</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="F88" s="18">
         <v>33125</v>
@@ -2933,13 +2936,13 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="F89" s="18">
         <v>33125</v>
@@ -2956,13 +2959,13 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="F90" s="18">
         <v>33125</v>
@@ -2985,7 +2988,7 @@
         <v>10</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="F91" s="18">
         <v>33125</v>
@@ -3002,13 +3005,13 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="F92" s="18">
         <v>33125</v>
@@ -3025,16 +3028,16 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="F93" s="18">
-        <v>30916</v>
+        <v>33125</v>
       </c>
       <c r="G93" s="18">
         <v>828116</v>
@@ -3048,13 +3051,13 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="F94" s="18">
         <v>33125</v>
@@ -3071,13 +3074,13 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="F95" s="18">
         <v>33125</v>
@@ -3094,13 +3097,13 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="F96" s="18">
         <v>33125</v>
@@ -3117,13 +3120,13 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="F97" s="18">
         <v>33125</v>
@@ -3140,13 +3143,13 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="F98" s="18">
         <v>33125</v>
@@ -3163,13 +3166,13 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="F99" s="18">
         <v>33125</v>
@@ -3186,13 +3189,13 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="F100" s="18">
         <v>33125</v>
@@ -3209,13 +3212,13 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="F101" s="18">
         <v>33125</v>
@@ -3232,13 +3235,13 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="F102" s="18">
         <v>33125</v>
@@ -3255,13 +3258,13 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="F103" s="18">
         <v>33125</v>
@@ -3278,13 +3281,13 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="F104" s="18">
         <v>33125</v>
@@ -3301,13 +3304,13 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="F105" s="18">
         <v>33125</v>
@@ -3324,13 +3327,13 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="F106" s="18">
         <v>33125</v>
@@ -3347,13 +3350,13 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="F107" s="18">
         <v>33125</v>
@@ -3370,13 +3373,13 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="F108" s="18">
         <v>33125</v>
@@ -3393,13 +3396,13 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="F109" s="18">
         <v>33125</v>
@@ -3416,13 +3419,13 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="F110" s="18">
         <v>33125</v>
@@ -3439,13 +3442,13 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="F111" s="18">
         <v>33125</v>
@@ -3462,13 +3465,13 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="F112" s="18">
         <v>33125</v>
@@ -3485,13 +3488,13 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="F113" s="18">
         <v>33125</v>
@@ -3508,13 +3511,13 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="F114" s="18">
         <v>33125</v>
@@ -3531,13 +3534,13 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="F115" s="18">
         <v>33125</v>
@@ -3554,13 +3557,13 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="F116" s="18">
         <v>33125</v>
@@ -3577,13 +3580,13 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="F117" s="18">
         <v>33125</v>
@@ -3600,13 +3603,13 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="F118" s="18">
         <v>33125</v>
@@ -3623,13 +3626,13 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="F119" s="18">
         <v>33125</v>
@@ -3646,13 +3649,13 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="F120" s="18">
         <v>33125</v>
@@ -3669,13 +3672,13 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="F121" s="18">
         <v>33125</v>
@@ -3692,13 +3695,13 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="F122" s="18">
         <v>33125</v>
@@ -3715,13 +3718,13 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F123" s="18">
         <v>33125</v>
@@ -3738,13 +3741,13 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F124" s="18">
         <v>33125</v>
@@ -3761,13 +3764,13 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F125" s="18">
         <v>33125</v>
@@ -3784,13 +3787,13 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F126" s="18">
         <v>33125</v>
@@ -3807,13 +3810,13 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F127" s="18">
         <v>33125</v>
@@ -3830,13 +3833,13 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F128" s="18">
         <v>33125</v>
@@ -3853,13 +3856,13 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F129" s="18">
         <v>33125</v>
@@ -3876,13 +3879,13 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F130" s="18">
         <v>33125</v>
@@ -3899,13 +3902,13 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F131" s="18">
         <v>33125</v>
@@ -3922,13 +3925,13 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F132" s="18">
         <v>33125</v>
@@ -3945,13 +3948,13 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F133" s="18">
         <v>33125</v>
@@ -3968,13 +3971,13 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F134" s="18">
         <v>33125</v>
@@ -3991,13 +3994,13 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F135" s="18">
         <v>33125</v>
@@ -4014,13 +4017,13 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F136" s="18">
         <v>33125</v>
@@ -4037,13 +4040,13 @@
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F137" s="18">
         <v>33125</v>
@@ -4060,13 +4063,13 @@
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F138" s="18">
         <v>33125</v>
@@ -4083,13 +4086,13 @@
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F139" s="18">
         <v>33125</v>
@@ -4106,10 +4109,10 @@
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="E140" s="16" t="s">
         <v>57</v>
@@ -4129,13 +4132,13 @@
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F141" s="18">
         <v>33125</v>
@@ -4152,13 +4155,13 @@
         <v>8</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F142" s="18">
         <v>33125</v>
@@ -4175,13 +4178,13 @@
         <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F143" s="18">
         <v>33125</v>
@@ -4198,13 +4201,13 @@
         <v>8</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F144" s="18">
         <v>33125</v>
@@ -4221,13 +4224,13 @@
         <v>8</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F145" s="18">
         <v>33125</v>
@@ -4244,13 +4247,13 @@
         <v>8</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F146" s="18">
         <v>33125</v>
@@ -4267,13 +4270,13 @@
         <v>8</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F147" s="18">
         <v>33125</v>
@@ -4290,13 +4293,13 @@
         <v>8</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F148" s="18">
         <v>33125</v>
@@ -4313,13 +4316,13 @@
         <v>8</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F149" s="18">
         <v>33125</v>
@@ -4336,13 +4339,13 @@
         <v>8</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F150" s="18">
         <v>33125</v>
@@ -4359,13 +4362,13 @@
         <v>8</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F151" s="18">
         <v>33125</v>
@@ -4382,13 +4385,13 @@
         <v>8</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F152" s="18">
         <v>33125</v>
@@ -4405,13 +4408,13 @@
         <v>8</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="F153" s="18">
         <v>33125</v>
@@ -4428,13 +4431,13 @@
         <v>8</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F154" s="18">
         <v>33125</v>
@@ -4451,13 +4454,13 @@
         <v>8</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F155" s="18">
         <v>33125</v>
@@ -4474,13 +4477,13 @@
         <v>8</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="F156" s="18">
         <v>33125</v>
@@ -4497,13 +4500,13 @@
         <v>8</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="F157" s="18">
         <v>33125</v>
@@ -4520,13 +4523,13 @@
         <v>8</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="F158" s="18">
         <v>33125</v>
@@ -4543,13 +4546,13 @@
         <v>8</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="F159" s="18">
         <v>33125</v>
@@ -4566,13 +4569,13 @@
         <v>8</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="F160" s="18">
         <v>33125</v>
@@ -4589,13 +4592,13 @@
         <v>8</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="F161" s="18">
         <v>33125</v>
@@ -4612,13 +4615,13 @@
         <v>8</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="F162" s="18">
         <v>33125</v>
@@ -4635,13 +4638,13 @@
         <v>8</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="F163" s="18">
         <v>33125</v>
@@ -4658,13 +4661,13 @@
         <v>8</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="F164" s="18">
         <v>33125</v>
@@ -4681,13 +4684,13 @@
         <v>8</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="F165" s="18">
         <v>33125</v>
@@ -4704,13 +4707,13 @@
         <v>8</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="F166" s="18">
         <v>33125</v>
@@ -4727,13 +4730,13 @@
         <v>8</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="F167" s="18">
         <v>33125</v>
@@ -4750,13 +4753,13 @@
         <v>8</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="D168" s="17" t="s">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="F168" s="18">
         <v>33125</v>
@@ -4773,13 +4776,13 @@
         <v>8</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="D169" s="17" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="E169" s="16" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="F169" s="18">
         <v>33125</v>
@@ -4796,13 +4799,13 @@
         <v>8</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="D170" s="17" t="s">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="E170" s="16" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="F170" s="18">
         <v>33125</v>
@@ -4819,16 +4822,16 @@
         <v>8</v>
       </c>
       <c r="C171" s="16" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="D171" s="17" t="s">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="E171" s="16" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="F171" s="18">
-        <v>30916</v>
+        <v>33125</v>
       </c>
       <c r="G171" s="18">
         <v>828116</v>
@@ -4842,13 +4845,13 @@
         <v>8</v>
       </c>
       <c r="C172" s="16" t="s">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="D172" s="17" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="E172" s="16" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="F172" s="18">
         <v>33125</v>
@@ -4865,13 +4868,13 @@
         <v>8</v>
       </c>
       <c r="C173" s="16" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="D173" s="17" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="E173" s="16" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="F173" s="18">
         <v>33125</v>
@@ -4888,13 +4891,13 @@
         <v>8</v>
       </c>
       <c r="C174" s="16" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="D174" s="17" t="s">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="E174" s="16" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="F174" s="18">
         <v>33125</v>
@@ -4911,13 +4914,13 @@
         <v>8</v>
       </c>
       <c r="C175" s="16" t="s">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="D175" s="17" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="E175" s="16" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="F175" s="18">
         <v>33125</v>
@@ -4934,13 +4937,13 @@
         <v>8</v>
       </c>
       <c r="C176" s="16" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="D176" s="17" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="E176" s="16" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="F176" s="18">
         <v>33125</v>
@@ -4957,13 +4960,13 @@
         <v>8</v>
       </c>
       <c r="C177" s="16" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="D177" s="17" t="s">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="E177" s="16" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="F177" s="18">
         <v>33125</v>
@@ -4980,13 +4983,13 @@
         <v>8</v>
       </c>
       <c r="C178" s="16" t="s">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="D178" s="17" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="E178" s="16" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="F178" s="18">
         <v>33125</v>
@@ -5003,13 +5006,13 @@
         <v>8</v>
       </c>
       <c r="C179" s="16" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="D179" s="17" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="E179" s="16" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="F179" s="18">
         <v>33125</v>
@@ -5026,13 +5029,13 @@
         <v>8</v>
       </c>
       <c r="C180" s="16" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="D180" s="17" t="s">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="E180" s="16" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="F180" s="18">
         <v>33125</v>
@@ -5049,13 +5052,13 @@
         <v>8</v>
       </c>
       <c r="C181" s="16" t="s">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="D181" s="17" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="E181" s="16" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="F181" s="18">
         <v>33125</v>
@@ -5072,13 +5075,13 @@
         <v>8</v>
       </c>
       <c r="C182" s="16" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="D182" s="17" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="E182" s="16" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="F182" s="18">
         <v>33125</v>
@@ -5095,13 +5098,13 @@
         <v>8</v>
       </c>
       <c r="C183" s="16" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="D183" s="17" t="s">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="E183" s="16" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="F183" s="18">
         <v>33125</v>
@@ -5118,13 +5121,13 @@
         <v>8</v>
       </c>
       <c r="C184" s="16" t="s">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="D184" s="17" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="E184" s="16" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="F184" s="18">
         <v>33125</v>
@@ -5141,13 +5144,13 @@
         <v>8</v>
       </c>
       <c r="C185" s="16" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="D185" s="17" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="E185" s="16" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="F185" s="18">
         <v>33125</v>
@@ -5164,13 +5167,13 @@
         <v>8</v>
       </c>
       <c r="C186" s="16" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="D186" s="17" t="s">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="E186" s="16" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="F186" s="18">
         <v>33125</v>
@@ -5187,13 +5190,13 @@
         <v>8</v>
       </c>
       <c r="C187" s="16" t="s">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="D187" s="17" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="E187" s="16" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="F187" s="18">
         <v>33125</v>
@@ -5210,13 +5213,13 @@
         <v>8</v>
       </c>
       <c r="C188" s="16" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="D188" s="17" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="E188" s="16" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="F188" s="18">
         <v>33125</v>
@@ -5233,13 +5236,13 @@
         <v>8</v>
       </c>
       <c r="C189" s="16" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="D189" s="17" t="s">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="E189" s="16" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="F189" s="18">
         <v>33125</v>
@@ -5256,13 +5259,13 @@
         <v>8</v>
       </c>
       <c r="C190" s="16" t="s">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="D190" s="17" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="E190" s="16" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="F190" s="18">
         <v>33125</v>
@@ -5279,13 +5282,13 @@
         <v>8</v>
       </c>
       <c r="C191" s="16" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="D191" s="17" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="E191" s="16" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="F191" s="18">
         <v>33125</v>
@@ -5302,13 +5305,13 @@
         <v>8</v>
       </c>
       <c r="C192" s="16" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="D192" s="17" t="s">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="E192" s="16" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="F192" s="18">
         <v>33125</v>
@@ -5325,13 +5328,13 @@
         <v>8</v>
       </c>
       <c r="C193" s="16" t="s">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="D193" s="17" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="E193" s="16" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="F193" s="18">
         <v>33125</v>
@@ -5348,13 +5351,13 @@
         <v>8</v>
       </c>
       <c r="C194" s="16" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="D194" s="17" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="E194" s="16" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="F194" s="18">
         <v>33125</v>
@@ -5371,13 +5374,13 @@
         <v>8</v>
       </c>
       <c r="C195" s="16" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="D195" s="17" t="s">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="E195" s="16" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="F195" s="18">
         <v>33125</v>
@@ -5394,13 +5397,13 @@
         <v>8</v>
       </c>
       <c r="C196" s="16" t="s">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="D196" s="17" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="E196" s="16" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="F196" s="18">
         <v>33125</v>
@@ -5417,13 +5420,13 @@
         <v>8</v>
       </c>
       <c r="C197" s="16" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="D197" s="17" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="E197" s="16" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="F197" s="18">
         <v>33125</v>
@@ -5440,13 +5443,13 @@
         <v>8</v>
       </c>
       <c r="C198" s="16" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="D198" s="17" t="s">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="E198" s="16" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="F198" s="18">
         <v>33125</v>
@@ -5463,13 +5466,13 @@
         <v>8</v>
       </c>
       <c r="C199" s="16" t="s">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="D199" s="17" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="E199" s="16" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="F199" s="18">
         <v>33125</v>
@@ -5486,13 +5489,13 @@
         <v>8</v>
       </c>
       <c r="C200" s="16" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="D200" s="17" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="E200" s="16" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="F200" s="18">
         <v>33125</v>
@@ -5509,13 +5512,13 @@
         <v>8</v>
       </c>
       <c r="C201" s="16" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="D201" s="17" t="s">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="E201" s="16" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="F201" s="18">
         <v>33125</v>
@@ -5532,13 +5535,13 @@
         <v>8</v>
       </c>
       <c r="C202" s="16" t="s">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="D202" s="17" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="E202" s="16" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="F202" s="18">
         <v>33125</v>
@@ -5555,13 +5558,13 @@
         <v>8</v>
       </c>
       <c r="C203" s="16" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="D203" s="17" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="E203" s="16" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F203" s="18">
         <v>33125</v>
@@ -5578,13 +5581,13 @@
         <v>8</v>
       </c>
       <c r="C204" s="16" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="D204" s="17" t="s">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="E204" s="16" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="F204" s="18">
         <v>33125</v>
@@ -5601,13 +5604,13 @@
         <v>8</v>
       </c>
       <c r="C205" s="16" t="s">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="D205" s="17" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="E205" s="16" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="F205" s="18">
         <v>33125</v>
@@ -5624,13 +5627,13 @@
         <v>8</v>
       </c>
       <c r="C206" s="16" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="D206" s="17" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="E206" s="16" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="F206" s="18">
         <v>33125</v>
@@ -5647,13 +5650,13 @@
         <v>8</v>
       </c>
       <c r="C207" s="16" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="D207" s="17" t="s">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="E207" s="16" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="F207" s="18">
         <v>33125</v>
@@ -5670,13 +5673,13 @@
         <v>8</v>
       </c>
       <c r="C208" s="16" t="s">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="D208" s="17" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="E208" s="16" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="F208" s="18">
         <v>33125</v>
@@ -5693,13 +5696,13 @@
         <v>8</v>
       </c>
       <c r="C209" s="16" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="D209" s="17" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="E209" s="16" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="F209" s="18">
         <v>33125</v>
@@ -5716,13 +5719,13 @@
         <v>8</v>
       </c>
       <c r="C210" s="16" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="D210" s="17" t="s">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="E210" s="16" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="F210" s="18">
         <v>33125</v>
@@ -5739,13 +5742,13 @@
         <v>8</v>
       </c>
       <c r="C211" s="16" t="s">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="D211" s="17" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="E211" s="16" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="F211" s="18">
         <v>33125</v>
@@ -5762,13 +5765,13 @@
         <v>8</v>
       </c>
       <c r="C212" s="16" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="D212" s="17" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="E212" s="16" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="F212" s="18">
         <v>33125</v>
@@ -5785,13 +5788,13 @@
         <v>8</v>
       </c>
       <c r="C213" s="16" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="D213" s="17" t="s">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="E213" s="16" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="F213" s="18">
         <v>33125</v>
@@ -5808,13 +5811,13 @@
         <v>8</v>
       </c>
       <c r="C214" s="16" t="s">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="D214" s="17" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="E214" s="16" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="F214" s="18">
         <v>33125</v>
@@ -5831,13 +5834,13 @@
         <v>8</v>
       </c>
       <c r="C215" s="16" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="D215" s="17" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="E215" s="16" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="F215" s="18">
         <v>33125</v>
@@ -5854,13 +5857,13 @@
         <v>8</v>
       </c>
       <c r="C216" s="16" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="D216" s="17" t="s">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="E216" s="16" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="F216" s="18">
         <v>33125</v>
@@ -5877,13 +5880,13 @@
         <v>8</v>
       </c>
       <c r="C217" s="16" t="s">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="D217" s="17" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="E217" s="16" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="F217" s="18">
         <v>33125</v>
@@ -5900,13 +5903,13 @@
         <v>8</v>
       </c>
       <c r="C218" s="16" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="D218" s="17" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="E218" s="16" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="F218" s="18">
         <v>33125</v>
@@ -5923,13 +5926,13 @@
         <v>8</v>
       </c>
       <c r="C219" s="16" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="D219" s="17" t="s">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="E219" s="16" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="F219" s="18">
         <v>33125</v>
@@ -5946,13 +5949,13 @@
         <v>8</v>
       </c>
       <c r="C220" s="16" t="s">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="D220" s="17" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="E220" s="16" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="F220" s="18">
         <v>33125</v>
@@ -5969,13 +5972,13 @@
         <v>8</v>
       </c>
       <c r="C221" s="16" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="D221" s="17" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="E221" s="16" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="F221" s="18">
         <v>33125</v>
@@ -5992,13 +5995,13 @@
         <v>8</v>
       </c>
       <c r="C222" s="16" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="D222" s="17" t="s">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="E222" s="16" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="F222" s="18">
         <v>33125</v>
@@ -6015,13 +6018,13 @@
         <v>8</v>
       </c>
       <c r="C223" s="16" t="s">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="D223" s="17" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="E223" s="16" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="F223" s="18">
         <v>33125</v>
@@ -6038,13 +6041,13 @@
         <v>8</v>
       </c>
       <c r="C224" s="16" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="D224" s="17" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="E224" s="16" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="F224" s="18">
         <v>33125</v>
@@ -6061,13 +6064,13 @@
         <v>8</v>
       </c>
       <c r="C225" s="16" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="D225" s="17" t="s">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="E225" s="16" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="F225" s="18">
         <v>33125</v>
@@ -6084,13 +6087,13 @@
         <v>8</v>
       </c>
       <c r="C226" s="16" t="s">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="D226" s="17" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="E226" s="16" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="F226" s="18">
         <v>33125</v>
@@ -6107,13 +6110,13 @@
         <v>8</v>
       </c>
       <c r="C227" s="16" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="D227" s="17" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="E227" s="16" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="F227" s="18">
         <v>33125</v>
@@ -6130,13 +6133,13 @@
         <v>8</v>
       </c>
       <c r="C228" s="16" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="D228" s="17" t="s">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="E228" s="16" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="F228" s="18">
         <v>33125</v>
@@ -6153,13 +6156,13 @@
         <v>8</v>
       </c>
       <c r="C229" s="16" t="s">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="D229" s="17" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="E229" s="16" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="F229" s="18">
         <v>33125</v>
@@ -6176,13 +6179,13 @@
         <v>8</v>
       </c>
       <c r="C230" s="16" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="D230" s="17" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="E230" s="16" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="F230" s="18">
         <v>33125</v>
@@ -6199,13 +6202,13 @@
         <v>8</v>
       </c>
       <c r="C231" s="16" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="D231" s="17" t="s">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="E231" s="16" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="F231" s="18">
         <v>33125</v>
@@ -6222,13 +6225,13 @@
         <v>8</v>
       </c>
       <c r="C232" s="16" t="s">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="D232" s="17" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="E232" s="16" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="F232" s="18">
         <v>33125</v>
@@ -6245,13 +6248,13 @@
         <v>8</v>
       </c>
       <c r="C233" s="16" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="D233" s="17" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="E233" s="16" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="F233" s="18">
         <v>33125</v>
@@ -6268,13 +6271,13 @@
         <v>8</v>
       </c>
       <c r="C234" s="16" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="D234" s="17" t="s">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="E234" s="16" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="F234" s="18">
         <v>33125</v>
@@ -6291,13 +6294,13 @@
         <v>8</v>
       </c>
       <c r="C235" s="16" t="s">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="D235" s="17" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="E235" s="16" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="F235" s="18">
         <v>33125</v>
@@ -6314,13 +6317,13 @@
         <v>8</v>
       </c>
       <c r="C236" s="16" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="D236" s="17" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="E236" s="16" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="F236" s="18">
         <v>33125</v>
@@ -6337,13 +6340,13 @@
         <v>8</v>
       </c>
       <c r="C237" s="16" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="D237" s="17" t="s">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="E237" s="16" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="F237" s="18">
         <v>33125</v>
@@ -6360,13 +6363,13 @@
         <v>8</v>
       </c>
       <c r="C238" s="16" t="s">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="D238" s="17" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="E238" s="16" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="F238" s="18">
         <v>33125</v>
@@ -6383,13 +6386,13 @@
         <v>8</v>
       </c>
       <c r="C239" s="16" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="D239" s="17" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="E239" s="16" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="F239" s="18">
         <v>33125</v>
@@ -6406,13 +6409,13 @@
         <v>8</v>
       </c>
       <c r="C240" s="16" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="D240" s="17" t="s">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="E240" s="16" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="F240" s="18">
         <v>33125</v>
@@ -6429,13 +6432,13 @@
         <v>8</v>
       </c>
       <c r="C241" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D241" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E241" s="16" t="s">
         <v>91</v>
-      </c>
-      <c r="D241" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="E241" s="16" t="s">
-        <v>80</v>
       </c>
       <c r="F241" s="18">
         <v>33125</v>
@@ -6452,13 +6455,13 @@
         <v>8</v>
       </c>
       <c r="C242" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D242" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E242" s="16" t="s">
         <v>91</v>
-      </c>
-      <c r="D242" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="E242" s="16" t="s">
-        <v>81</v>
       </c>
       <c r="F242" s="18">
         <v>33125</v>
@@ -6475,13 +6478,13 @@
         <v>8</v>
       </c>
       <c r="C243" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D243" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E243" s="16" t="s">
         <v>91</v>
-      </c>
-      <c r="D243" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="E243" s="16" t="s">
-        <v>82</v>
       </c>
       <c r="F243" s="18">
         <v>33125</v>
@@ -6498,13 +6501,13 @@
         <v>8</v>
       </c>
       <c r="C244" s="16" t="s">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="D244" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E244" s="16" t="s">
         <v>92</v>
-      </c>
-      <c r="E244" s="16" t="s">
-        <v>83</v>
       </c>
       <c r="F244" s="18">
         <v>33125</v>
@@ -6521,13 +6524,13 @@
         <v>8</v>
       </c>
       <c r="C245" s="16" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="D245" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E245" s="16" t="s">
         <v>92</v>
-      </c>
-      <c r="E245" s="16" t="s">
-        <v>84</v>
       </c>
       <c r="F245" s="18">
         <v>33125</v>
@@ -6544,13 +6547,13 @@
         <v>8</v>
       </c>
       <c r="C246" s="16" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="D246" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E246" s="16" t="s">
         <v>92</v>
-      </c>
-      <c r="E246" s="16" t="s">
-        <v>85</v>
       </c>
       <c r="F246" s="18">
         <v>33125</v>
@@ -6567,13 +6570,13 @@
         <v>8</v>
       </c>
       <c r="C247" s="16" t="s">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="D247" s="17" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="E247" s="16" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="F247" s="18">
         <v>33125</v>
@@ -6590,13 +6593,13 @@
         <v>8</v>
       </c>
       <c r="C248" s="16" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="D248" s="17" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="E248" s="16" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="F248" s="18">
         <v>33125</v>
@@ -6613,16 +6616,16 @@
         <v>8</v>
       </c>
       <c r="C249" s="16" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="D249" s="17" t="s">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="E249" s="16" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F249" s="18">
-        <v>30916</v>
+        <v>33125</v>
       </c>
       <c r="G249" s="18">
         <v>828116</v>
@@ -6636,19 +6639,19 @@
         <v>8</v>
       </c>
       <c r="C250" s="16" t="s">
-        <v>93</v>
+        <v>9</v>
       </c>
       <c r="D250" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E250" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="E250" s="16" t="s">
-        <v>73</v>
-      </c>
       <c r="F250" s="18">
-        <v>35112</v>
+        <v>33125</v>
       </c>
       <c r="G250" s="18">
-        <v>1384664</v>
+        <v>828116</v>
       </c>
       <c r="H250" s="19"/>
       <c r="I250" s="19"/>
@@ -6659,75 +6662,144 @@
         <v>8</v>
       </c>
       <c r="C251" s="16" t="s">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="D251" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E251" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="E251" s="16" t="s">
-        <v>74</v>
-      </c>
       <c r="F251" s="18">
-        <v>35112</v>
+        <v>33125</v>
       </c>
       <c r="G251" s="18">
-        <v>1384664</v>
+        <v>828116</v>
       </c>
       <c r="H251" s="19"/>
       <c r="I251" s="19"/>
       <c r="J251" s="20"/>
     </row>
     <row r="252" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B252" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C252" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="D252" s="23" t="s">
+      <c r="B252" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C252" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D252" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E252" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="E252" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="F252" s="24">
-        <v>35112</v>
-      </c>
-      <c r="G252" s="24">
-        <v>1384664</v>
-      </c>
-      <c r="H252" s="25"/>
-      <c r="I252" s="25"/>
-      <c r="J252" s="26"/>
-    </row>
-    <row r="257" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B257" s="32" t="s">
+      <c r="F252" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G252" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H252" s="19"/>
+      <c r="I252" s="19"/>
+      <c r="J252" s="20"/>
+    </row>
+    <row r="253" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B253" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C253" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D253" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E253" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="F253" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G253" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H253" s="19"/>
+      <c r="I253" s="19"/>
+      <c r="J253" s="20"/>
+    </row>
+    <row r="254" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B254" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C254" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D254" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E254" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="F254" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G254" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H254" s="19"/>
+      <c r="I254" s="19"/>
+      <c r="J254" s="20"/>
+    </row>
+    <row r="255" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B255" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C255" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D255" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E255" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="F255" s="24">
+        <v>33125</v>
+      </c>
+      <c r="G255" s="24">
+        <v>828116</v>
+      </c>
+      <c r="H255" s="25"/>
+      <c r="I255" s="25"/>
+      <c r="J255" s="26"/>
+    </row>
+    <row r="260" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B260" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="C260" s="32"/>
+      <c r="H260" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I260" s="1"/>
+      <c r="J260" s="1"/>
+    </row>
+    <row r="261" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B261" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="C257" s="32"/>
-      <c r="H257" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="I257" s="1"/>
-      <c r="J257" s="1"/>
-    </row>
-    <row r="258" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B258" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="C258" s="32"/>
-      <c r="H258" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="I258" s="1"/>
-      <c r="J258" s="1"/>
+      <c r="C261" s="32"/>
+      <c r="H261" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I261" s="1"/>
+      <c r="J261" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B258:C258"/>
-    <mergeCell ref="B257:C257"/>
-    <mergeCell ref="H258:J258"/>
-    <mergeCell ref="H257:J257"/>
+    <mergeCell ref="B261:C261"/>
+    <mergeCell ref="B260:C260"/>
+    <mergeCell ref="H261:J261"/>
+    <mergeCell ref="H260:J260"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9003313705.xlsx
+++ b/Data/EC/NIT-9003313705.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A30AD38A-0B87-44D9-9893-48DD37AFB640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB136F53-039F-47CB-858D-77B0B53409F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E605D7AD-339F-483E-B640-1FC732C8D6D3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6C878F33-409C-46A6-AAFB-E41314AF170D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="108">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -324,6 +324,9 @@
   </si>
   <si>
     <t>2508</t>
+  </si>
+  <si>
+    <t>2509</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -422,9 +425,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -437,7 +438,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -631,29 +634,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -672,19 +675,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -737,7 +746,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{028F57CF-B14F-55AE-203C-14354000C1AF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC2B381D-2251-4ABB-BF8F-80B0199CC6F8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1088,8 +1097,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C12AE399-0CBE-4862-8B05-6802F6A0EB3D}">
-  <dimension ref="B2:J261"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A130161-7477-4E2D-8C66-CC782D9D491E}">
+  <dimension ref="B2:J264"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1111,57 +1120,57 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
     </row>
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1177,7 +1186,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>9003313705</v>
       </c>
@@ -1190,12 +1199,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
-        <v>7949334</v>
+        <v>8048709</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1206,17 +1215,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C13" s="5">
         <v>4</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F13" s="5">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1243,13 +1252,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>101</v>
-      </c>
       <c r="J15" s="14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1262,18 +1271,18 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="19">
         <v>30916</v>
       </c>
-      <c r="G16" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
+      <c r="G16" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
@@ -1285,18 +1294,18 @@
       <c r="D17" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="19">
         <v>30916</v>
       </c>
-      <c r="G17" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
+      <c r="G17" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
@@ -1308,18 +1317,18 @@
       <c r="D18" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="19">
         <v>30916</v>
       </c>
-      <c r="G18" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
+      <c r="G18" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
@@ -1331,18 +1340,18 @@
       <c r="D19" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G19" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
+      <c r="F19" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G19" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
@@ -1354,18 +1363,18 @@
       <c r="D20" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G20" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
+      <c r="F20" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G20" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
@@ -1377,18 +1386,18 @@
       <c r="D21" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G21" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
+      <c r="F21" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G21" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
@@ -1400,18 +1409,18 @@
       <c r="D22" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G22" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
+      <c r="F22" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G22" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
@@ -1423,18 +1432,18 @@
       <c r="D23" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F23" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G23" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
+      <c r="F23" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G23" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
@@ -1446,18 +1455,18 @@
       <c r="D24" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F24" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G24" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
+      <c r="F24" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G24" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
@@ -1469,18 +1478,18 @@
       <c r="D25" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F25" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G25" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
+      <c r="F25" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G25" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
@@ -1492,18 +1501,18 @@
       <c r="D26" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F26" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G26" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
+      <c r="F26" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G26" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
@@ -1515,18 +1524,18 @@
       <c r="D27" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F27" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G27" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
+      <c r="F27" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G27" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
@@ -1538,18 +1547,18 @@
       <c r="D28" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F28" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G28" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
+      <c r="F28" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G28" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
@@ -1561,18 +1570,18 @@
       <c r="D29" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F29" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G29" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
+      <c r="F29" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G29" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="21"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
@@ -1584,18 +1593,18 @@
       <c r="D30" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F30" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G30" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
+      <c r="F30" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G30" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="21"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
@@ -1607,18 +1616,18 @@
       <c r="D31" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F31" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G31" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
+      <c r="F31" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G31" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="21"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
@@ -1630,18 +1639,18 @@
       <c r="D32" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F32" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G32" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20"/>
+      <c r="F32" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G32" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="21"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
@@ -1653,18 +1662,18 @@
       <c r="D33" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F33" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G33" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="20"/>
+      <c r="F33" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G33" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="21"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
@@ -1676,18 +1685,18 @@
       <c r="D34" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F34" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G34" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="20"/>
+      <c r="F34" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G34" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="21"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
@@ -1699,18 +1708,18 @@
       <c r="D35" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F35" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G35" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="20"/>
+      <c r="F35" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G35" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="21"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
@@ -1722,18 +1731,18 @@
       <c r="D36" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F36" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G36" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="20"/>
+      <c r="F36" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G36" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="21"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
@@ -1745,18 +1754,18 @@
       <c r="D37" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F37" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G37" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="20"/>
+      <c r="F37" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G37" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="21"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
@@ -1768,18 +1777,18 @@
       <c r="D38" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F38" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G38" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="20"/>
+      <c r="F38" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G38" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="21"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
@@ -1791,18 +1800,18 @@
       <c r="D39" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F39" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G39" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="20"/>
+      <c r="F39" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G39" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="21"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
@@ -1814,18 +1823,18 @@
       <c r="D40" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F40" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G40" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="20"/>
+      <c r="F40" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G40" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="21"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
@@ -1837,18 +1846,18 @@
       <c r="D41" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F41" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G41" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="20"/>
+      <c r="F41" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G41" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="21"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
@@ -1860,18 +1869,18 @@
       <c r="D42" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F42" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G42" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="20"/>
+      <c r="F42" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G42" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="21"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
@@ -1883,18 +1892,18 @@
       <c r="D43" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F43" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G43" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="20"/>
+      <c r="F43" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G43" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="21"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
@@ -1906,18 +1915,18 @@
       <c r="D44" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F44" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G44" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="20"/>
+      <c r="F44" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G44" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="21"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
@@ -1929,18 +1938,18 @@
       <c r="D45" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="E45" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F45" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G45" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="20"/>
+      <c r="F45" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G45" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="21"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
@@ -1952,18 +1961,18 @@
       <c r="D46" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="E46" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F46" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G46" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="20"/>
+      <c r="F46" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G46" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="21"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
@@ -1975,18 +1984,18 @@
       <c r="D47" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E47" s="16" t="s">
+      <c r="E47" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F47" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G47" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="20"/>
+      <c r="F47" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G47" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="21"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
@@ -1998,18 +2007,18 @@
       <c r="D48" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E48" s="16" t="s">
+      <c r="E48" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F48" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G48" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="20"/>
+      <c r="F48" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G48" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="21"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
@@ -2021,18 +2030,18 @@
       <c r="D49" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E49" s="16" t="s">
+      <c r="E49" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F49" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G49" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="20"/>
+      <c r="F49" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G49" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="21"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
@@ -2044,18 +2053,18 @@
       <c r="D50" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E50" s="16" t="s">
+      <c r="E50" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F50" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G50" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="20"/>
+      <c r="F50" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G50" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="21"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51" s="15" t="s">
@@ -2067,18 +2076,18 @@
       <c r="D51" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E51" s="16" t="s">
+      <c r="E51" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F51" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G51" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="20"/>
+      <c r="F51" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G51" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="21"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52" s="15" t="s">
@@ -2090,18 +2099,18 @@
       <c r="D52" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E52" s="16" t="s">
+      <c r="E52" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F52" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G52" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="20"/>
+      <c r="F52" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G52" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="21"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B53" s="15" t="s">
@@ -2113,18 +2122,18 @@
       <c r="D53" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E53" s="16" t="s">
+      <c r="E53" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F53" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G53" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="20"/>
+      <c r="F53" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G53" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="21"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B54" s="15" t="s">
@@ -2136,18 +2145,18 @@
       <c r="D54" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E54" s="16" t="s">
+      <c r="E54" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F54" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G54" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="20"/>
+      <c r="F54" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G54" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="21"/>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B55" s="15" t="s">
@@ -2159,18 +2168,18 @@
       <c r="D55" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E55" s="16" t="s">
+      <c r="E55" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F55" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G55" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="20"/>
+      <c r="F55" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G55" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="21"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B56" s="15" t="s">
@@ -2182,18 +2191,18 @@
       <c r="D56" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E56" s="16" t="s">
+      <c r="E56" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F56" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G56" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="20"/>
+      <c r="F56" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G56" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="21"/>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B57" s="15" t="s">
@@ -2205,18 +2214,18 @@
       <c r="D57" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E57" s="16" t="s">
+      <c r="E57" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F57" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G57" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="20"/>
+      <c r="F57" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G57" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="21"/>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B58" s="15" t="s">
@@ -2228,18 +2237,18 @@
       <c r="D58" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E58" s="16" t="s">
+      <c r="E58" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F58" s="18">
+      <c r="F58" s="19">
         <v>35112</v>
       </c>
-      <c r="G58" s="18">
+      <c r="G58" s="19">
         <v>1423500</v>
       </c>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="20"/>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="21"/>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B59" s="15" t="s">
@@ -2251,18 +2260,18 @@
       <c r="D59" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E59" s="16" t="s">
+      <c r="E59" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F59" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G59" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="20"/>
+      <c r="F59" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G59" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="21"/>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B60" s="15" t="s">
@@ -2274,18 +2283,18 @@
       <c r="D60" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E60" s="16" t="s">
+      <c r="E60" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F60" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G60" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="20"/>
+      <c r="F60" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G60" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="21"/>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B61" s="15" t="s">
@@ -2297,18 +2306,18 @@
       <c r="D61" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E61" s="16" t="s">
+      <c r="E61" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F61" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G61" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="20"/>
+      <c r="F61" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G61" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="21"/>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B62" s="15" t="s">
@@ -2320,18 +2329,18 @@
       <c r="D62" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E62" s="16" t="s">
+      <c r="E62" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F62" s="18">
+      <c r="F62" s="19">
         <v>35112</v>
       </c>
-      <c r="G62" s="18">
+      <c r="G62" s="19">
         <v>1423500</v>
       </c>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="20"/>
+      <c r="H62" s="20"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="21"/>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B63" s="15" t="s">
@@ -2343,18 +2352,18 @@
       <c r="D63" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E63" s="16" t="s">
+      <c r="E63" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F63" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G63" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="20"/>
+      <c r="F63" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G63" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H63" s="20"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="21"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B64" s="15" t="s">
@@ -2366,18 +2375,18 @@
       <c r="D64" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E64" s="16" t="s">
+      <c r="E64" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F64" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G64" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H64" s="19"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="20"/>
+      <c r="F64" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G64" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H64" s="20"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="21"/>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B65" s="15" t="s">
@@ -2389,18 +2398,18 @@
       <c r="D65" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E65" s="16" t="s">
+      <c r="E65" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F65" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G65" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H65" s="19"/>
-      <c r="I65" s="19"/>
-      <c r="J65" s="20"/>
+      <c r="F65" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G65" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H65" s="20"/>
+      <c r="I65" s="20"/>
+      <c r="J65" s="21"/>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B66" s="15" t="s">
@@ -2412,18 +2421,18 @@
       <c r="D66" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E66" s="16" t="s">
+      <c r="E66" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F66" s="18">
+      <c r="F66" s="19">
         <v>35112</v>
       </c>
-      <c r="G66" s="18">
+      <c r="G66" s="19">
         <v>1423500</v>
       </c>
-      <c r="H66" s="19"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="20"/>
+      <c r="H66" s="20"/>
+      <c r="I66" s="20"/>
+      <c r="J66" s="21"/>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B67" s="15" t="s">
@@ -2435,18 +2444,18 @@
       <c r="D67" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E67" s="16" t="s">
+      <c r="E67" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F67" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G67" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H67" s="19"/>
-      <c r="I67" s="19"/>
-      <c r="J67" s="20"/>
+      <c r="F67" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G67" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H67" s="20"/>
+      <c r="I67" s="20"/>
+      <c r="J67" s="21"/>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B68" s="15" t="s">
@@ -2458,18 +2467,18 @@
       <c r="D68" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E68" s="16" t="s">
+      <c r="E68" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F68" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G68" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H68" s="19"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="20"/>
+      <c r="F68" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G68" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H68" s="20"/>
+      <c r="I68" s="20"/>
+      <c r="J68" s="21"/>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B69" s="15" t="s">
@@ -2481,18 +2490,18 @@
       <c r="D69" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E69" s="16" t="s">
+      <c r="E69" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F69" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G69" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H69" s="19"/>
-      <c r="I69" s="19"/>
-      <c r="J69" s="20"/>
+      <c r="F69" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G69" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H69" s="20"/>
+      <c r="I69" s="20"/>
+      <c r="J69" s="21"/>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B70" s="15" t="s">
@@ -2504,18 +2513,18 @@
       <c r="D70" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E70" s="16" t="s">
+      <c r="E70" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F70" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G70" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H70" s="19"/>
-      <c r="I70" s="19"/>
-      <c r="J70" s="20"/>
+      <c r="F70" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G70" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H70" s="20"/>
+      <c r="I70" s="20"/>
+      <c r="J70" s="21"/>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B71" s="15" t="s">
@@ -2527,18 +2536,18 @@
       <c r="D71" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E71" s="16" t="s">
+      <c r="E71" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F71" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G71" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H71" s="19"/>
-      <c r="I71" s="19"/>
-      <c r="J71" s="20"/>
+      <c r="F71" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G71" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H71" s="20"/>
+      <c r="I71" s="20"/>
+      <c r="J71" s="21"/>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B72" s="15" t="s">
@@ -2550,18 +2559,18 @@
       <c r="D72" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E72" s="16" t="s">
+      <c r="E72" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F72" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G72" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H72" s="19"/>
-      <c r="I72" s="19"/>
-      <c r="J72" s="20"/>
+      <c r="F72" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G72" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H72" s="20"/>
+      <c r="I72" s="20"/>
+      <c r="J72" s="21"/>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B73" s="15" t="s">
@@ -2573,18 +2582,18 @@
       <c r="D73" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E73" s="16" t="s">
+      <c r="E73" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F73" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G73" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H73" s="19"/>
-      <c r="I73" s="19"/>
-      <c r="J73" s="20"/>
+      <c r="F73" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G73" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H73" s="20"/>
+      <c r="I73" s="20"/>
+      <c r="J73" s="21"/>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B74" s="15" t="s">
@@ -2596,18 +2605,18 @@
       <c r="D74" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E74" s="16" t="s">
+      <c r="E74" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F74" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G74" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H74" s="19"/>
-      <c r="I74" s="19"/>
-      <c r="J74" s="20"/>
+      <c r="F74" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G74" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H74" s="20"/>
+      <c r="I74" s="20"/>
+      <c r="J74" s="21"/>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B75" s="15" t="s">
@@ -2619,18 +2628,18 @@
       <c r="D75" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E75" s="16" t="s">
+      <c r="E75" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F75" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G75" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H75" s="19"/>
-      <c r="I75" s="19"/>
-      <c r="J75" s="20"/>
+      <c r="F75" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G75" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H75" s="20"/>
+      <c r="I75" s="20"/>
+      <c r="J75" s="21"/>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B76" s="15" t="s">
@@ -2642,18 +2651,18 @@
       <c r="D76" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E76" s="16" t="s">
+      <c r="E76" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F76" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G76" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H76" s="19"/>
-      <c r="I76" s="19"/>
-      <c r="J76" s="20"/>
+      <c r="F76" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G76" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H76" s="20"/>
+      <c r="I76" s="20"/>
+      <c r="J76" s="21"/>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B77" s="15" t="s">
@@ -2665,18 +2674,18 @@
       <c r="D77" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E77" s="16" t="s">
+      <c r="E77" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F77" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G77" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H77" s="19"/>
-      <c r="I77" s="19"/>
-      <c r="J77" s="20"/>
+      <c r="F77" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G77" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H77" s="20"/>
+      <c r="I77" s="20"/>
+      <c r="J77" s="21"/>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B78" s="15" t="s">
@@ -2688,18 +2697,18 @@
       <c r="D78" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E78" s="16" t="s">
+      <c r="E78" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F78" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G78" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H78" s="19"/>
-      <c r="I78" s="19"/>
-      <c r="J78" s="20"/>
+      <c r="F78" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G78" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H78" s="20"/>
+      <c r="I78" s="20"/>
+      <c r="J78" s="21"/>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B79" s="15" t="s">
@@ -2711,18 +2720,18 @@
       <c r="D79" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E79" s="16" t="s">
+      <c r="E79" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F79" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G79" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H79" s="19"/>
-      <c r="I79" s="19"/>
-      <c r="J79" s="20"/>
+      <c r="F79" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G79" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H79" s="20"/>
+      <c r="I79" s="20"/>
+      <c r="J79" s="21"/>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B80" s="15" t="s">
@@ -2734,18 +2743,18 @@
       <c r="D80" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E80" s="16" t="s">
+      <c r="E80" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F80" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G80" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H80" s="19"/>
-      <c r="I80" s="19"/>
-      <c r="J80" s="20"/>
+      <c r="F80" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G80" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H80" s="20"/>
+      <c r="I80" s="20"/>
+      <c r="J80" s="21"/>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B81" s="15" t="s">
@@ -2757,18 +2766,18 @@
       <c r="D81" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E81" s="16" t="s">
+      <c r="E81" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F81" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G81" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H81" s="19"/>
-      <c r="I81" s="19"/>
-      <c r="J81" s="20"/>
+      <c r="F81" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G81" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H81" s="20"/>
+      <c r="I81" s="20"/>
+      <c r="J81" s="21"/>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B82" s="15" t="s">
@@ -2780,18 +2789,18 @@
       <c r="D82" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E82" s="16" t="s">
+      <c r="E82" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F82" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G82" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H82" s="19"/>
-      <c r="I82" s="19"/>
-      <c r="J82" s="20"/>
+      <c r="F82" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G82" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H82" s="20"/>
+      <c r="I82" s="20"/>
+      <c r="J82" s="21"/>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B83" s="15" t="s">
@@ -2803,18 +2812,18 @@
       <c r="D83" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E83" s="16" t="s">
+      <c r="E83" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F83" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G83" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H83" s="19"/>
-      <c r="I83" s="19"/>
-      <c r="J83" s="20"/>
+      <c r="F83" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G83" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H83" s="20"/>
+      <c r="I83" s="20"/>
+      <c r="J83" s="21"/>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B84" s="15" t="s">
@@ -2826,18 +2835,18 @@
       <c r="D84" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E84" s="16" t="s">
+      <c r="E84" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F84" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G84" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H84" s="19"/>
-      <c r="I84" s="19"/>
-      <c r="J84" s="20"/>
+      <c r="F84" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G84" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H84" s="20"/>
+      <c r="I84" s="20"/>
+      <c r="J84" s="21"/>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B85" s="15" t="s">
@@ -2849,18 +2858,18 @@
       <c r="D85" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E85" s="16" t="s">
+      <c r="E85" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F85" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G85" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H85" s="19"/>
-      <c r="I85" s="19"/>
-      <c r="J85" s="20"/>
+      <c r="F85" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G85" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H85" s="20"/>
+      <c r="I85" s="20"/>
+      <c r="J85" s="21"/>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B86" s="15" t="s">
@@ -2872,18 +2881,18 @@
       <c r="D86" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E86" s="16" t="s">
+      <c r="E86" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F86" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G86" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H86" s="19"/>
-      <c r="I86" s="19"/>
-      <c r="J86" s="20"/>
+      <c r="F86" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G86" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H86" s="20"/>
+      <c r="I86" s="20"/>
+      <c r="J86" s="21"/>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B87" s="15" t="s">
@@ -2895,18 +2904,18 @@
       <c r="D87" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E87" s="16" t="s">
+      <c r="E87" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F87" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G87" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H87" s="19"/>
-      <c r="I87" s="19"/>
-      <c r="J87" s="20"/>
+      <c r="F87" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G87" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H87" s="20"/>
+      <c r="I87" s="20"/>
+      <c r="J87" s="21"/>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B88" s="15" t="s">
@@ -2918,18 +2927,18 @@
       <c r="D88" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E88" s="16" t="s">
+      <c r="E88" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F88" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G88" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H88" s="19"/>
-      <c r="I88" s="19"/>
-      <c r="J88" s="20"/>
+      <c r="F88" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G88" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H88" s="20"/>
+      <c r="I88" s="20"/>
+      <c r="J88" s="21"/>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B89" s="15" t="s">
@@ -2941,18 +2950,18 @@
       <c r="D89" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E89" s="16" t="s">
+      <c r="E89" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F89" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G89" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H89" s="19"/>
-      <c r="I89" s="19"/>
-      <c r="J89" s="20"/>
+      <c r="F89" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G89" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H89" s="20"/>
+      <c r="I89" s="20"/>
+      <c r="J89" s="21"/>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B90" s="15" t="s">
@@ -2964,18 +2973,18 @@
       <c r="D90" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E90" s="16" t="s">
+      <c r="E90" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F90" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G90" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H90" s="19"/>
-      <c r="I90" s="19"/>
-      <c r="J90" s="20"/>
+      <c r="F90" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G90" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H90" s="20"/>
+      <c r="I90" s="20"/>
+      <c r="J90" s="21"/>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B91" s="15" t="s">
@@ -2987,18 +2996,18 @@
       <c r="D91" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E91" s="16" t="s">
+      <c r="E91" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F91" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G91" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H91" s="19"/>
-      <c r="I91" s="19"/>
-      <c r="J91" s="20"/>
+      <c r="F91" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G91" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H91" s="20"/>
+      <c r="I91" s="20"/>
+      <c r="J91" s="21"/>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B92" s="15" t="s">
@@ -3010,18 +3019,18 @@
       <c r="D92" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E92" s="16" t="s">
+      <c r="E92" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F92" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G92" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H92" s="19"/>
-      <c r="I92" s="19"/>
-      <c r="J92" s="20"/>
+      <c r="F92" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G92" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H92" s="20"/>
+      <c r="I92" s="20"/>
+      <c r="J92" s="21"/>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B93" s="15" t="s">
@@ -3033,18 +3042,18 @@
       <c r="D93" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E93" s="16" t="s">
+      <c r="E93" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F93" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G93" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H93" s="19"/>
-      <c r="I93" s="19"/>
-      <c r="J93" s="20"/>
+      <c r="F93" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G93" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H93" s="20"/>
+      <c r="I93" s="20"/>
+      <c r="J93" s="21"/>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B94" s="15" t="s">
@@ -3056,18 +3065,18 @@
       <c r="D94" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E94" s="16" t="s">
+      <c r="E94" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F94" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G94" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H94" s="19"/>
-      <c r="I94" s="19"/>
-      <c r="J94" s="20"/>
+      <c r="F94" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G94" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H94" s="20"/>
+      <c r="I94" s="20"/>
+      <c r="J94" s="21"/>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B95" s="15" t="s">
@@ -3079,18 +3088,18 @@
       <c r="D95" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E95" s="16" t="s">
+      <c r="E95" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F95" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G95" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H95" s="19"/>
-      <c r="I95" s="19"/>
-      <c r="J95" s="20"/>
+      <c r="F95" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G95" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H95" s="20"/>
+      <c r="I95" s="20"/>
+      <c r="J95" s="21"/>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B96" s="15" t="s">
@@ -3102,18 +3111,18 @@
       <c r="D96" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E96" s="16" t="s">
+      <c r="E96" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F96" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G96" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H96" s="19"/>
-      <c r="I96" s="19"/>
-      <c r="J96" s="20"/>
+      <c r="F96" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G96" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H96" s="20"/>
+      <c r="I96" s="20"/>
+      <c r="J96" s="21"/>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B97" s="15" t="s">
@@ -3125,18 +3134,18 @@
       <c r="D97" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E97" s="16" t="s">
+      <c r="E97" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F97" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G97" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H97" s="19"/>
-      <c r="I97" s="19"/>
-      <c r="J97" s="20"/>
+      <c r="F97" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G97" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H97" s="20"/>
+      <c r="I97" s="20"/>
+      <c r="J97" s="21"/>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B98" s="15" t="s">
@@ -3148,18 +3157,18 @@
       <c r="D98" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E98" s="16" t="s">
+      <c r="E98" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F98" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G98" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H98" s="19"/>
-      <c r="I98" s="19"/>
-      <c r="J98" s="20"/>
+      <c r="F98" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G98" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H98" s="20"/>
+      <c r="I98" s="20"/>
+      <c r="J98" s="21"/>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B99" s="15" t="s">
@@ -3171,18 +3180,18 @@
       <c r="D99" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E99" s="16" t="s">
+      <c r="E99" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F99" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G99" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H99" s="19"/>
-      <c r="I99" s="19"/>
-      <c r="J99" s="20"/>
+      <c r="F99" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G99" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H99" s="20"/>
+      <c r="I99" s="20"/>
+      <c r="J99" s="21"/>
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B100" s="15" t="s">
@@ -3194,18 +3203,18 @@
       <c r="D100" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E100" s="16" t="s">
+      <c r="E100" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F100" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G100" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H100" s="19"/>
-      <c r="I100" s="19"/>
-      <c r="J100" s="20"/>
+      <c r="F100" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G100" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H100" s="20"/>
+      <c r="I100" s="20"/>
+      <c r="J100" s="21"/>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B101" s="15" t="s">
@@ -3217,18 +3226,18 @@
       <c r="D101" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E101" s="16" t="s">
+      <c r="E101" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F101" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G101" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H101" s="19"/>
-      <c r="I101" s="19"/>
-      <c r="J101" s="20"/>
+      <c r="F101" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G101" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H101" s="20"/>
+      <c r="I101" s="20"/>
+      <c r="J101" s="21"/>
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B102" s="15" t="s">
@@ -3240,18 +3249,18 @@
       <c r="D102" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E102" s="16" t="s">
+      <c r="E102" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F102" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G102" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H102" s="19"/>
-      <c r="I102" s="19"/>
-      <c r="J102" s="20"/>
+      <c r="F102" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G102" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H102" s="20"/>
+      <c r="I102" s="20"/>
+      <c r="J102" s="21"/>
     </row>
     <row r="103" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B103" s="15" t="s">
@@ -3263,18 +3272,18 @@
       <c r="D103" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E103" s="16" t="s">
+      <c r="E103" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F103" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G103" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H103" s="19"/>
-      <c r="I103" s="19"/>
-      <c r="J103" s="20"/>
+      <c r="F103" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G103" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H103" s="20"/>
+      <c r="I103" s="20"/>
+      <c r="J103" s="21"/>
     </row>
     <row r="104" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B104" s="15" t="s">
@@ -3286,18 +3295,18 @@
       <c r="D104" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E104" s="16" t="s">
+      <c r="E104" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F104" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G104" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H104" s="19"/>
-      <c r="I104" s="19"/>
-      <c r="J104" s="20"/>
+      <c r="F104" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G104" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H104" s="20"/>
+      <c r="I104" s="20"/>
+      <c r="J104" s="21"/>
     </row>
     <row r="105" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B105" s="15" t="s">
@@ -3309,18 +3318,18 @@
       <c r="D105" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E105" s="16" t="s">
+      <c r="E105" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F105" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G105" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H105" s="19"/>
-      <c r="I105" s="19"/>
-      <c r="J105" s="20"/>
+      <c r="F105" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G105" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H105" s="20"/>
+      <c r="I105" s="20"/>
+      <c r="J105" s="21"/>
     </row>
     <row r="106" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B106" s="15" t="s">
@@ -3332,18 +3341,18 @@
       <c r="D106" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E106" s="16" t="s">
+      <c r="E106" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F106" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G106" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H106" s="19"/>
-      <c r="I106" s="19"/>
-      <c r="J106" s="20"/>
+      <c r="F106" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G106" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H106" s="20"/>
+      <c r="I106" s="20"/>
+      <c r="J106" s="21"/>
     </row>
     <row r="107" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B107" s="15" t="s">
@@ -3355,18 +3364,18 @@
       <c r="D107" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E107" s="16" t="s">
+      <c r="E107" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F107" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G107" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H107" s="19"/>
-      <c r="I107" s="19"/>
-      <c r="J107" s="20"/>
+      <c r="F107" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G107" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H107" s="20"/>
+      <c r="I107" s="20"/>
+      <c r="J107" s="21"/>
     </row>
     <row r="108" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B108" s="15" t="s">
@@ -3378,18 +3387,18 @@
       <c r="D108" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E108" s="16" t="s">
+      <c r="E108" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F108" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G108" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H108" s="19"/>
-      <c r="I108" s="19"/>
-      <c r="J108" s="20"/>
+      <c r="F108" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G108" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H108" s="20"/>
+      <c r="I108" s="20"/>
+      <c r="J108" s="21"/>
     </row>
     <row r="109" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B109" s="15" t="s">
@@ -3401,18 +3410,18 @@
       <c r="D109" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E109" s="16" t="s">
+      <c r="E109" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F109" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G109" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H109" s="19"/>
-      <c r="I109" s="19"/>
-      <c r="J109" s="20"/>
+      <c r="F109" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G109" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H109" s="20"/>
+      <c r="I109" s="20"/>
+      <c r="J109" s="21"/>
     </row>
     <row r="110" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B110" s="15" t="s">
@@ -3424,18 +3433,18 @@
       <c r="D110" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E110" s="16" t="s">
+      <c r="E110" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F110" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G110" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H110" s="19"/>
-      <c r="I110" s="19"/>
-      <c r="J110" s="20"/>
+      <c r="F110" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G110" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H110" s="20"/>
+      <c r="I110" s="20"/>
+      <c r="J110" s="21"/>
     </row>
     <row r="111" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B111" s="15" t="s">
@@ -3447,18 +3456,18 @@
       <c r="D111" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E111" s="16" t="s">
+      <c r="E111" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F111" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G111" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H111" s="19"/>
-      <c r="I111" s="19"/>
-      <c r="J111" s="20"/>
+      <c r="F111" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G111" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H111" s="20"/>
+      <c r="I111" s="20"/>
+      <c r="J111" s="21"/>
     </row>
     <row r="112" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B112" s="15" t="s">
@@ -3470,18 +3479,18 @@
       <c r="D112" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E112" s="16" t="s">
+      <c r="E112" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F112" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G112" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H112" s="19"/>
-      <c r="I112" s="19"/>
-      <c r="J112" s="20"/>
+      <c r="F112" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G112" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H112" s="20"/>
+      <c r="I112" s="20"/>
+      <c r="J112" s="21"/>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B113" s="15" t="s">
@@ -3493,18 +3502,18 @@
       <c r="D113" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E113" s="16" t="s">
+      <c r="E113" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F113" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G113" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H113" s="19"/>
-      <c r="I113" s="19"/>
-      <c r="J113" s="20"/>
+      <c r="F113" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G113" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H113" s="20"/>
+      <c r="I113" s="20"/>
+      <c r="J113" s="21"/>
     </row>
     <row r="114" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B114" s="15" t="s">
@@ -3516,18 +3525,18 @@
       <c r="D114" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E114" s="16" t="s">
+      <c r="E114" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F114" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G114" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H114" s="19"/>
-      <c r="I114" s="19"/>
-      <c r="J114" s="20"/>
+      <c r="F114" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G114" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H114" s="20"/>
+      <c r="I114" s="20"/>
+      <c r="J114" s="21"/>
     </row>
     <row r="115" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B115" s="15" t="s">
@@ -3539,18 +3548,18 @@
       <c r="D115" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E115" s="16" t="s">
+      <c r="E115" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F115" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G115" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H115" s="19"/>
-      <c r="I115" s="19"/>
-      <c r="J115" s="20"/>
+      <c r="F115" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G115" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H115" s="20"/>
+      <c r="I115" s="20"/>
+      <c r="J115" s="21"/>
     </row>
     <row r="116" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B116" s="15" t="s">
@@ -3562,18 +3571,18 @@
       <c r="D116" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E116" s="16" t="s">
+      <c r="E116" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F116" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G116" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H116" s="19"/>
-      <c r="I116" s="19"/>
-      <c r="J116" s="20"/>
+      <c r="F116" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G116" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H116" s="20"/>
+      <c r="I116" s="20"/>
+      <c r="J116" s="21"/>
     </row>
     <row r="117" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B117" s="15" t="s">
@@ -3585,18 +3594,18 @@
       <c r="D117" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E117" s="16" t="s">
+      <c r="E117" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F117" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G117" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H117" s="19"/>
-      <c r="I117" s="19"/>
-      <c r="J117" s="20"/>
+      <c r="F117" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G117" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H117" s="20"/>
+      <c r="I117" s="20"/>
+      <c r="J117" s="21"/>
     </row>
     <row r="118" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B118" s="15" t="s">
@@ -3608,18 +3617,18 @@
       <c r="D118" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E118" s="16" t="s">
+      <c r="E118" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F118" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G118" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H118" s="19"/>
-      <c r="I118" s="19"/>
-      <c r="J118" s="20"/>
+      <c r="F118" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G118" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H118" s="20"/>
+      <c r="I118" s="20"/>
+      <c r="J118" s="21"/>
     </row>
     <row r="119" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B119" s="15" t="s">
@@ -3631,18 +3640,18 @@
       <c r="D119" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E119" s="16" t="s">
+      <c r="E119" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F119" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G119" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H119" s="19"/>
-      <c r="I119" s="19"/>
-      <c r="J119" s="20"/>
+      <c r="F119" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G119" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H119" s="20"/>
+      <c r="I119" s="20"/>
+      <c r="J119" s="21"/>
     </row>
     <row r="120" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B120" s="15" t="s">
@@ -3654,18 +3663,18 @@
       <c r="D120" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E120" s="16" t="s">
+      <c r="E120" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F120" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G120" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H120" s="19"/>
-      <c r="I120" s="19"/>
-      <c r="J120" s="20"/>
+      <c r="F120" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G120" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H120" s="20"/>
+      <c r="I120" s="20"/>
+      <c r="J120" s="21"/>
     </row>
     <row r="121" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B121" s="15" t="s">
@@ -3677,18 +3686,18 @@
       <c r="D121" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E121" s="16" t="s">
+      <c r="E121" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F121" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G121" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H121" s="19"/>
-      <c r="I121" s="19"/>
-      <c r="J121" s="20"/>
+      <c r="F121" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G121" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H121" s="20"/>
+      <c r="I121" s="20"/>
+      <c r="J121" s="21"/>
     </row>
     <row r="122" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B122" s="15" t="s">
@@ -3700,18 +3709,18 @@
       <c r="D122" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E122" s="16" t="s">
+      <c r="E122" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F122" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G122" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H122" s="19"/>
-      <c r="I122" s="19"/>
-      <c r="J122" s="20"/>
+      <c r="F122" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G122" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H122" s="20"/>
+      <c r="I122" s="20"/>
+      <c r="J122" s="21"/>
     </row>
     <row r="123" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B123" s="15" t="s">
@@ -3723,18 +3732,18 @@
       <c r="D123" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E123" s="16" t="s">
+      <c r="E123" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F123" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G123" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H123" s="19"/>
-      <c r="I123" s="19"/>
-      <c r="J123" s="20"/>
+      <c r="F123" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G123" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H123" s="20"/>
+      <c r="I123" s="20"/>
+      <c r="J123" s="21"/>
     </row>
     <row r="124" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B124" s="15" t="s">
@@ -3746,18 +3755,18 @@
       <c r="D124" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E124" s="16" t="s">
+      <c r="E124" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F124" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G124" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H124" s="19"/>
-      <c r="I124" s="19"/>
-      <c r="J124" s="20"/>
+      <c r="F124" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G124" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H124" s="20"/>
+      <c r="I124" s="20"/>
+      <c r="J124" s="21"/>
     </row>
     <row r="125" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B125" s="15" t="s">
@@ -3769,18 +3778,18 @@
       <c r="D125" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E125" s="16" t="s">
+      <c r="E125" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F125" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G125" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H125" s="19"/>
-      <c r="I125" s="19"/>
-      <c r="J125" s="20"/>
+      <c r="F125" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G125" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H125" s="20"/>
+      <c r="I125" s="20"/>
+      <c r="J125" s="21"/>
     </row>
     <row r="126" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B126" s="15" t="s">
@@ -3792,18 +3801,18 @@
       <c r="D126" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E126" s="16" t="s">
+      <c r="E126" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F126" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G126" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H126" s="19"/>
-      <c r="I126" s="19"/>
-      <c r="J126" s="20"/>
+      <c r="F126" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G126" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H126" s="20"/>
+      <c r="I126" s="20"/>
+      <c r="J126" s="21"/>
     </row>
     <row r="127" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B127" s="15" t="s">
@@ -3815,18 +3824,18 @@
       <c r="D127" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E127" s="16" t="s">
+      <c r="E127" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F127" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G127" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H127" s="19"/>
-      <c r="I127" s="19"/>
-      <c r="J127" s="20"/>
+      <c r="F127" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G127" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H127" s="20"/>
+      <c r="I127" s="20"/>
+      <c r="J127" s="21"/>
     </row>
     <row r="128" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B128" s="15" t="s">
@@ -3838,18 +3847,18 @@
       <c r="D128" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E128" s="16" t="s">
+      <c r="E128" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F128" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G128" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H128" s="19"/>
-      <c r="I128" s="19"/>
-      <c r="J128" s="20"/>
+      <c r="F128" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G128" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H128" s="20"/>
+      <c r="I128" s="20"/>
+      <c r="J128" s="21"/>
     </row>
     <row r="129" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B129" s="15" t="s">
@@ -3861,18 +3870,18 @@
       <c r="D129" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E129" s="16" t="s">
+      <c r="E129" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F129" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G129" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H129" s="19"/>
-      <c r="I129" s="19"/>
-      <c r="J129" s="20"/>
+      <c r="F129" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G129" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H129" s="20"/>
+      <c r="I129" s="20"/>
+      <c r="J129" s="21"/>
     </row>
     <row r="130" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B130" s="15" t="s">
@@ -3884,18 +3893,18 @@
       <c r="D130" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E130" s="16" t="s">
+      <c r="E130" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="F130" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G130" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H130" s="19"/>
-      <c r="I130" s="19"/>
-      <c r="J130" s="20"/>
+      <c r="F130" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G130" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H130" s="20"/>
+      <c r="I130" s="20"/>
+      <c r="J130" s="21"/>
     </row>
     <row r="131" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B131" s="15" t="s">
@@ -3907,18 +3916,18 @@
       <c r="D131" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E131" s="16" t="s">
+      <c r="E131" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="F131" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G131" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H131" s="19"/>
-      <c r="I131" s="19"/>
-      <c r="J131" s="20"/>
+      <c r="F131" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G131" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H131" s="20"/>
+      <c r="I131" s="20"/>
+      <c r="J131" s="21"/>
     </row>
     <row r="132" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B132" s="15" t="s">
@@ -3930,18 +3939,18 @@
       <c r="D132" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E132" s="16" t="s">
+      <c r="E132" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="F132" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G132" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H132" s="19"/>
-      <c r="I132" s="19"/>
-      <c r="J132" s="20"/>
+      <c r="F132" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G132" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H132" s="20"/>
+      <c r="I132" s="20"/>
+      <c r="J132" s="21"/>
     </row>
     <row r="133" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B133" s="15" t="s">
@@ -3953,18 +3962,18 @@
       <c r="D133" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E133" s="16" t="s">
+      <c r="E133" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F133" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G133" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H133" s="19"/>
-      <c r="I133" s="19"/>
-      <c r="J133" s="20"/>
+      <c r="F133" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G133" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H133" s="20"/>
+      <c r="I133" s="20"/>
+      <c r="J133" s="21"/>
     </row>
     <row r="134" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B134" s="15" t="s">
@@ -3976,18 +3985,18 @@
       <c r="D134" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E134" s="16" t="s">
+      <c r="E134" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F134" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G134" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H134" s="19"/>
-      <c r="I134" s="19"/>
-      <c r="J134" s="20"/>
+      <c r="F134" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G134" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H134" s="20"/>
+      <c r="I134" s="20"/>
+      <c r="J134" s="21"/>
     </row>
     <row r="135" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B135" s="15" t="s">
@@ -3999,18 +4008,18 @@
       <c r="D135" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E135" s="16" t="s">
+      <c r="E135" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F135" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G135" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H135" s="19"/>
-      <c r="I135" s="19"/>
-      <c r="J135" s="20"/>
+      <c r="F135" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G135" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H135" s="20"/>
+      <c r="I135" s="20"/>
+      <c r="J135" s="21"/>
     </row>
     <row r="136" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B136" s="15" t="s">
@@ -4022,18 +4031,18 @@
       <c r="D136" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E136" s="16" t="s">
+      <c r="E136" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F136" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G136" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H136" s="19"/>
-      <c r="I136" s="19"/>
-      <c r="J136" s="20"/>
+      <c r="F136" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G136" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H136" s="20"/>
+      <c r="I136" s="20"/>
+      <c r="J136" s="21"/>
     </row>
     <row r="137" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B137" s="15" t="s">
@@ -4045,18 +4054,18 @@
       <c r="D137" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E137" s="16" t="s">
+      <c r="E137" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F137" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G137" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H137" s="19"/>
-      <c r="I137" s="19"/>
-      <c r="J137" s="20"/>
+      <c r="F137" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G137" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H137" s="20"/>
+      <c r="I137" s="20"/>
+      <c r="J137" s="21"/>
     </row>
     <row r="138" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B138" s="15" t="s">
@@ -4068,18 +4077,18 @@
       <c r="D138" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E138" s="16" t="s">
+      <c r="E138" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F138" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G138" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H138" s="19"/>
-      <c r="I138" s="19"/>
-      <c r="J138" s="20"/>
+      <c r="F138" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G138" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H138" s="20"/>
+      <c r="I138" s="20"/>
+      <c r="J138" s="21"/>
     </row>
     <row r="139" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B139" s="15" t="s">
@@ -4091,18 +4100,18 @@
       <c r="D139" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E139" s="16" t="s">
+      <c r="E139" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="F139" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G139" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H139" s="19"/>
-      <c r="I139" s="19"/>
-      <c r="J139" s="20"/>
+      <c r="F139" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G139" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H139" s="20"/>
+      <c r="I139" s="20"/>
+      <c r="J139" s="21"/>
     </row>
     <row r="140" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B140" s="15" t="s">
@@ -4114,18 +4123,18 @@
       <c r="D140" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E140" s="16" t="s">
+      <c r="E140" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="F140" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G140" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H140" s="19"/>
-      <c r="I140" s="19"/>
-      <c r="J140" s="20"/>
+      <c r="F140" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G140" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H140" s="20"/>
+      <c r="I140" s="20"/>
+      <c r="J140" s="21"/>
     </row>
     <row r="141" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B141" s="15" t="s">
@@ -4137,18 +4146,18 @@
       <c r="D141" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E141" s="16" t="s">
+      <c r="E141" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="F141" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G141" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H141" s="19"/>
-      <c r="I141" s="19"/>
-      <c r="J141" s="20"/>
+      <c r="F141" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G141" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H141" s="20"/>
+      <c r="I141" s="20"/>
+      <c r="J141" s="21"/>
     </row>
     <row r="142" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B142" s="15" t="s">
@@ -4160,18 +4169,18 @@
       <c r="D142" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E142" s="16" t="s">
+      <c r="E142" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="F142" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G142" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H142" s="19"/>
-      <c r="I142" s="19"/>
-      <c r="J142" s="20"/>
+      <c r="F142" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G142" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H142" s="20"/>
+      <c r="I142" s="20"/>
+      <c r="J142" s="21"/>
     </row>
     <row r="143" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B143" s="15" t="s">
@@ -4183,18 +4192,18 @@
       <c r="D143" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E143" s="16" t="s">
+      <c r="E143" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="F143" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G143" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H143" s="19"/>
-      <c r="I143" s="19"/>
-      <c r="J143" s="20"/>
+      <c r="F143" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G143" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H143" s="20"/>
+      <c r="I143" s="20"/>
+      <c r="J143" s="21"/>
     </row>
     <row r="144" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B144" s="15" t="s">
@@ -4206,18 +4215,18 @@
       <c r="D144" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E144" s="16" t="s">
+      <c r="E144" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="F144" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G144" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H144" s="19"/>
-      <c r="I144" s="19"/>
-      <c r="J144" s="20"/>
+      <c r="F144" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G144" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H144" s="20"/>
+      <c r="I144" s="20"/>
+      <c r="J144" s="21"/>
     </row>
     <row r="145" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B145" s="15" t="s">
@@ -4229,18 +4238,18 @@
       <c r="D145" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E145" s="16" t="s">
+      <c r="E145" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F145" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G145" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H145" s="19"/>
-      <c r="I145" s="19"/>
-      <c r="J145" s="20"/>
+      <c r="F145" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G145" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H145" s="20"/>
+      <c r="I145" s="20"/>
+      <c r="J145" s="21"/>
     </row>
     <row r="146" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B146" s="15" t="s">
@@ -4252,18 +4261,18 @@
       <c r="D146" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E146" s="16" t="s">
+      <c r="E146" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F146" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G146" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H146" s="19"/>
-      <c r="I146" s="19"/>
-      <c r="J146" s="20"/>
+      <c r="F146" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G146" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H146" s="20"/>
+      <c r="I146" s="20"/>
+      <c r="J146" s="21"/>
     </row>
     <row r="147" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B147" s="15" t="s">
@@ -4275,18 +4284,18 @@
       <c r="D147" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E147" s="16" t="s">
+      <c r="E147" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F147" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G147" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H147" s="19"/>
-      <c r="I147" s="19"/>
-      <c r="J147" s="20"/>
+      <c r="F147" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G147" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H147" s="20"/>
+      <c r="I147" s="20"/>
+      <c r="J147" s="21"/>
     </row>
     <row r="148" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B148" s="15" t="s">
@@ -4298,18 +4307,18 @@
       <c r="D148" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E148" s="16" t="s">
+      <c r="E148" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="F148" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G148" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H148" s="19"/>
-      <c r="I148" s="19"/>
-      <c r="J148" s="20"/>
+      <c r="F148" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G148" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H148" s="20"/>
+      <c r="I148" s="20"/>
+      <c r="J148" s="21"/>
     </row>
     <row r="149" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B149" s="15" t="s">
@@ -4321,18 +4330,18 @@
       <c r="D149" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E149" s="16" t="s">
+      <c r="E149" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="F149" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G149" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H149" s="19"/>
-      <c r="I149" s="19"/>
-      <c r="J149" s="20"/>
+      <c r="F149" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G149" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H149" s="20"/>
+      <c r="I149" s="20"/>
+      <c r="J149" s="21"/>
     </row>
     <row r="150" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B150" s="15" t="s">
@@ -4344,18 +4353,18 @@
       <c r="D150" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E150" s="16" t="s">
+      <c r="E150" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="F150" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G150" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H150" s="19"/>
-      <c r="I150" s="19"/>
-      <c r="J150" s="20"/>
+      <c r="F150" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G150" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H150" s="20"/>
+      <c r="I150" s="20"/>
+      <c r="J150" s="21"/>
     </row>
     <row r="151" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B151" s="15" t="s">
@@ -4367,18 +4376,18 @@
       <c r="D151" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E151" s="16" t="s">
+      <c r="E151" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="F151" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G151" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H151" s="19"/>
-      <c r="I151" s="19"/>
-      <c r="J151" s="20"/>
+      <c r="F151" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G151" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H151" s="20"/>
+      <c r="I151" s="20"/>
+      <c r="J151" s="21"/>
     </row>
     <row r="152" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B152" s="15" t="s">
@@ -4390,18 +4399,18 @@
       <c r="D152" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E152" s="16" t="s">
+      <c r="E152" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="F152" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G152" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H152" s="19"/>
-      <c r="I152" s="19"/>
-      <c r="J152" s="20"/>
+      <c r="F152" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G152" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H152" s="20"/>
+      <c r="I152" s="20"/>
+      <c r="J152" s="21"/>
     </row>
     <row r="153" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B153" s="15" t="s">
@@ -4413,18 +4422,18 @@
       <c r="D153" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E153" s="16" t="s">
+      <c r="E153" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="F153" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G153" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H153" s="19"/>
-      <c r="I153" s="19"/>
-      <c r="J153" s="20"/>
+      <c r="F153" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G153" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H153" s="20"/>
+      <c r="I153" s="20"/>
+      <c r="J153" s="21"/>
     </row>
     <row r="154" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B154" s="15" t="s">
@@ -4436,18 +4445,18 @@
       <c r="D154" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E154" s="16" t="s">
+      <c r="E154" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="F154" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G154" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H154" s="19"/>
-      <c r="I154" s="19"/>
-      <c r="J154" s="20"/>
+      <c r="F154" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G154" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H154" s="20"/>
+      <c r="I154" s="20"/>
+      <c r="J154" s="21"/>
     </row>
     <row r="155" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B155" s="15" t="s">
@@ -4459,18 +4468,18 @@
       <c r="D155" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E155" s="16" t="s">
+      <c r="E155" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="F155" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G155" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H155" s="19"/>
-      <c r="I155" s="19"/>
-      <c r="J155" s="20"/>
+      <c r="F155" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G155" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H155" s="20"/>
+      <c r="I155" s="20"/>
+      <c r="J155" s="21"/>
     </row>
     <row r="156" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B156" s="15" t="s">
@@ -4482,18 +4491,18 @@
       <c r="D156" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E156" s="16" t="s">
+      <c r="E156" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="F156" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G156" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H156" s="19"/>
-      <c r="I156" s="19"/>
-      <c r="J156" s="20"/>
+      <c r="F156" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G156" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H156" s="20"/>
+      <c r="I156" s="20"/>
+      <c r="J156" s="21"/>
     </row>
     <row r="157" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B157" s="15" t="s">
@@ -4505,18 +4514,18 @@
       <c r="D157" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E157" s="16" t="s">
+      <c r="E157" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="F157" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G157" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H157" s="19"/>
-      <c r="I157" s="19"/>
-      <c r="J157" s="20"/>
+      <c r="F157" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G157" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H157" s="20"/>
+      <c r="I157" s="20"/>
+      <c r="J157" s="21"/>
     </row>
     <row r="158" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B158" s="15" t="s">
@@ -4528,18 +4537,18 @@
       <c r="D158" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E158" s="16" t="s">
+      <c r="E158" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="F158" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G158" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H158" s="19"/>
-      <c r="I158" s="19"/>
-      <c r="J158" s="20"/>
+      <c r="F158" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G158" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H158" s="20"/>
+      <c r="I158" s="20"/>
+      <c r="J158" s="21"/>
     </row>
     <row r="159" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B159" s="15" t="s">
@@ -4551,18 +4560,18 @@
       <c r="D159" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E159" s="16" t="s">
+      <c r="E159" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="F159" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G159" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H159" s="19"/>
-      <c r="I159" s="19"/>
-      <c r="J159" s="20"/>
+      <c r="F159" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G159" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H159" s="20"/>
+      <c r="I159" s="20"/>
+      <c r="J159" s="21"/>
     </row>
     <row r="160" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B160" s="15" t="s">
@@ -4574,18 +4583,18 @@
       <c r="D160" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E160" s="16" t="s">
+      <c r="E160" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="F160" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G160" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H160" s="19"/>
-      <c r="I160" s="19"/>
-      <c r="J160" s="20"/>
+      <c r="F160" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G160" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H160" s="20"/>
+      <c r="I160" s="20"/>
+      <c r="J160" s="21"/>
     </row>
     <row r="161" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B161" s="15" t="s">
@@ -4597,18 +4606,18 @@
       <c r="D161" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E161" s="16" t="s">
+      <c r="E161" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="F161" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G161" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H161" s="19"/>
-      <c r="I161" s="19"/>
-      <c r="J161" s="20"/>
+      <c r="F161" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G161" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H161" s="20"/>
+      <c r="I161" s="20"/>
+      <c r="J161" s="21"/>
     </row>
     <row r="162" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B162" s="15" t="s">
@@ -4620,18 +4629,18 @@
       <c r="D162" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E162" s="16" t="s">
+      <c r="E162" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="F162" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G162" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H162" s="19"/>
-      <c r="I162" s="19"/>
-      <c r="J162" s="20"/>
+      <c r="F162" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G162" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H162" s="20"/>
+      <c r="I162" s="20"/>
+      <c r="J162" s="21"/>
     </row>
     <row r="163" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B163" s="15" t="s">
@@ -4643,18 +4652,18 @@
       <c r="D163" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E163" s="16" t="s">
+      <c r="E163" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="F163" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G163" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H163" s="19"/>
-      <c r="I163" s="19"/>
-      <c r="J163" s="20"/>
+      <c r="F163" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G163" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H163" s="20"/>
+      <c r="I163" s="20"/>
+      <c r="J163" s="21"/>
     </row>
     <row r="164" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B164" s="15" t="s">
@@ -4666,18 +4675,18 @@
       <c r="D164" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E164" s="16" t="s">
+      <c r="E164" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="F164" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G164" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H164" s="19"/>
-      <c r="I164" s="19"/>
-      <c r="J164" s="20"/>
+      <c r="F164" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G164" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H164" s="20"/>
+      <c r="I164" s="20"/>
+      <c r="J164" s="21"/>
     </row>
     <row r="165" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B165" s="15" t="s">
@@ -4689,18 +4698,18 @@
       <c r="D165" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E165" s="16" t="s">
+      <c r="E165" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="F165" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G165" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H165" s="19"/>
-      <c r="I165" s="19"/>
-      <c r="J165" s="20"/>
+      <c r="F165" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G165" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H165" s="20"/>
+      <c r="I165" s="20"/>
+      <c r="J165" s="21"/>
     </row>
     <row r="166" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B166" s="15" t="s">
@@ -4712,18 +4721,18 @@
       <c r="D166" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E166" s="16" t="s">
+      <c r="E166" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="F166" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G166" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H166" s="19"/>
-      <c r="I166" s="19"/>
-      <c r="J166" s="20"/>
+      <c r="F166" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G166" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H166" s="20"/>
+      <c r="I166" s="20"/>
+      <c r="J166" s="21"/>
     </row>
     <row r="167" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B167" s="15" t="s">
@@ -4735,18 +4744,18 @@
       <c r="D167" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E167" s="16" t="s">
+      <c r="E167" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="F167" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G167" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H167" s="19"/>
-      <c r="I167" s="19"/>
-      <c r="J167" s="20"/>
+      <c r="F167" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G167" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H167" s="20"/>
+      <c r="I167" s="20"/>
+      <c r="J167" s="21"/>
     </row>
     <row r="168" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B168" s="15" t="s">
@@ -4758,18 +4767,18 @@
       <c r="D168" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E168" s="16" t="s">
+      <c r="E168" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="F168" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G168" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H168" s="19"/>
-      <c r="I168" s="19"/>
-      <c r="J168" s="20"/>
+      <c r="F168" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G168" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H168" s="20"/>
+      <c r="I168" s="20"/>
+      <c r="J168" s="21"/>
     </row>
     <row r="169" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B169" s="15" t="s">
@@ -4781,18 +4790,18 @@
       <c r="D169" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E169" s="16" t="s">
+      <c r="E169" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="F169" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G169" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H169" s="19"/>
-      <c r="I169" s="19"/>
-      <c r="J169" s="20"/>
+      <c r="F169" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G169" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H169" s="20"/>
+      <c r="I169" s="20"/>
+      <c r="J169" s="21"/>
     </row>
     <row r="170" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B170" s="15" t="s">
@@ -4804,18 +4813,18 @@
       <c r="D170" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E170" s="16" t="s">
+      <c r="E170" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="F170" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G170" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H170" s="19"/>
-      <c r="I170" s="19"/>
-      <c r="J170" s="20"/>
+      <c r="F170" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G170" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H170" s="20"/>
+      <c r="I170" s="20"/>
+      <c r="J170" s="21"/>
     </row>
     <row r="171" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B171" s="15" t="s">
@@ -4827,18 +4836,18 @@
       <c r="D171" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E171" s="16" t="s">
+      <c r="E171" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="F171" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G171" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H171" s="19"/>
-      <c r="I171" s="19"/>
-      <c r="J171" s="20"/>
+      <c r="F171" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G171" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H171" s="20"/>
+      <c r="I171" s="20"/>
+      <c r="J171" s="21"/>
     </row>
     <row r="172" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B172" s="15" t="s">
@@ -4850,18 +4859,18 @@
       <c r="D172" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E172" s="16" t="s">
+      <c r="E172" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="F172" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G172" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H172" s="19"/>
-      <c r="I172" s="19"/>
-      <c r="J172" s="20"/>
+      <c r="F172" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G172" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H172" s="20"/>
+      <c r="I172" s="20"/>
+      <c r="J172" s="21"/>
     </row>
     <row r="173" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B173" s="15" t="s">
@@ -4873,18 +4882,18 @@
       <c r="D173" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E173" s="16" t="s">
+      <c r="E173" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="F173" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G173" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H173" s="19"/>
-      <c r="I173" s="19"/>
-      <c r="J173" s="20"/>
+      <c r="F173" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G173" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H173" s="20"/>
+      <c r="I173" s="20"/>
+      <c r="J173" s="21"/>
     </row>
     <row r="174" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B174" s="15" t="s">
@@ -4896,18 +4905,18 @@
       <c r="D174" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E174" s="16" t="s">
+      <c r="E174" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="F174" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G174" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H174" s="19"/>
-      <c r="I174" s="19"/>
-      <c r="J174" s="20"/>
+      <c r="F174" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G174" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H174" s="20"/>
+      <c r="I174" s="20"/>
+      <c r="J174" s="21"/>
     </row>
     <row r="175" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B175" s="15" t="s">
@@ -4919,18 +4928,18 @@
       <c r="D175" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E175" s="16" t="s">
+      <c r="E175" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="F175" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G175" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H175" s="19"/>
-      <c r="I175" s="19"/>
-      <c r="J175" s="20"/>
+      <c r="F175" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G175" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H175" s="20"/>
+      <c r="I175" s="20"/>
+      <c r="J175" s="21"/>
     </row>
     <row r="176" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B176" s="15" t="s">
@@ -4942,18 +4951,18 @@
       <c r="D176" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E176" s="16" t="s">
+      <c r="E176" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="F176" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G176" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H176" s="19"/>
-      <c r="I176" s="19"/>
-      <c r="J176" s="20"/>
+      <c r="F176" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G176" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H176" s="20"/>
+      <c r="I176" s="20"/>
+      <c r="J176" s="21"/>
     </row>
     <row r="177" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B177" s="15" t="s">
@@ -4965,18 +4974,18 @@
       <c r="D177" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E177" s="16" t="s">
+      <c r="E177" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="F177" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G177" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H177" s="19"/>
-      <c r="I177" s="19"/>
-      <c r="J177" s="20"/>
+      <c r="F177" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G177" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H177" s="20"/>
+      <c r="I177" s="20"/>
+      <c r="J177" s="21"/>
     </row>
     <row r="178" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B178" s="15" t="s">
@@ -4988,18 +4997,18 @@
       <c r="D178" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E178" s="16" t="s">
+      <c r="E178" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="F178" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G178" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H178" s="19"/>
-      <c r="I178" s="19"/>
-      <c r="J178" s="20"/>
+      <c r="F178" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G178" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H178" s="20"/>
+      <c r="I178" s="20"/>
+      <c r="J178" s="21"/>
     </row>
     <row r="179" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B179" s="15" t="s">
@@ -5011,18 +5020,18 @@
       <c r="D179" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E179" s="16" t="s">
+      <c r="E179" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="F179" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G179" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H179" s="19"/>
-      <c r="I179" s="19"/>
-      <c r="J179" s="20"/>
+      <c r="F179" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G179" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H179" s="20"/>
+      <c r="I179" s="20"/>
+      <c r="J179" s="21"/>
     </row>
     <row r="180" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B180" s="15" t="s">
@@ -5034,18 +5043,18 @@
       <c r="D180" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E180" s="16" t="s">
+      <c r="E180" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="F180" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G180" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H180" s="19"/>
-      <c r="I180" s="19"/>
-      <c r="J180" s="20"/>
+      <c r="F180" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G180" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H180" s="20"/>
+      <c r="I180" s="20"/>
+      <c r="J180" s="21"/>
     </row>
     <row r="181" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B181" s="15" t="s">
@@ -5057,18 +5066,18 @@
       <c r="D181" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E181" s="16" t="s">
+      <c r="E181" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="F181" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G181" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H181" s="19"/>
-      <c r="I181" s="19"/>
-      <c r="J181" s="20"/>
+      <c r="F181" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G181" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H181" s="20"/>
+      <c r="I181" s="20"/>
+      <c r="J181" s="21"/>
     </row>
     <row r="182" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B182" s="15" t="s">
@@ -5080,18 +5089,18 @@
       <c r="D182" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E182" s="16" t="s">
+      <c r="E182" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="F182" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G182" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H182" s="19"/>
-      <c r="I182" s="19"/>
-      <c r="J182" s="20"/>
+      <c r="F182" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G182" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H182" s="20"/>
+      <c r="I182" s="20"/>
+      <c r="J182" s="21"/>
     </row>
     <row r="183" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B183" s="15" t="s">
@@ -5103,18 +5112,18 @@
       <c r="D183" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E183" s="16" t="s">
+      <c r="E183" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="F183" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G183" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H183" s="19"/>
-      <c r="I183" s="19"/>
-      <c r="J183" s="20"/>
+      <c r="F183" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G183" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H183" s="20"/>
+      <c r="I183" s="20"/>
+      <c r="J183" s="21"/>
     </row>
     <row r="184" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B184" s="15" t="s">
@@ -5126,18 +5135,18 @@
       <c r="D184" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E184" s="16" t="s">
+      <c r="E184" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="F184" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G184" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H184" s="19"/>
-      <c r="I184" s="19"/>
-      <c r="J184" s="20"/>
+      <c r="F184" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G184" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H184" s="20"/>
+      <c r="I184" s="20"/>
+      <c r="J184" s="21"/>
     </row>
     <row r="185" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B185" s="15" t="s">
@@ -5149,18 +5158,18 @@
       <c r="D185" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E185" s="16" t="s">
+      <c r="E185" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="F185" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G185" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H185" s="19"/>
-      <c r="I185" s="19"/>
-      <c r="J185" s="20"/>
+      <c r="F185" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G185" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H185" s="20"/>
+      <c r="I185" s="20"/>
+      <c r="J185" s="21"/>
     </row>
     <row r="186" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B186" s="15" t="s">
@@ -5172,18 +5181,18 @@
       <c r="D186" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E186" s="16" t="s">
+      <c r="E186" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="F186" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G186" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H186" s="19"/>
-      <c r="I186" s="19"/>
-      <c r="J186" s="20"/>
+      <c r="F186" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G186" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H186" s="20"/>
+      <c r="I186" s="20"/>
+      <c r="J186" s="21"/>
     </row>
     <row r="187" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B187" s="15" t="s">
@@ -5195,18 +5204,18 @@
       <c r="D187" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E187" s="16" t="s">
+      <c r="E187" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="F187" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G187" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H187" s="19"/>
-      <c r="I187" s="19"/>
-      <c r="J187" s="20"/>
+      <c r="F187" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G187" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H187" s="20"/>
+      <c r="I187" s="20"/>
+      <c r="J187" s="21"/>
     </row>
     <row r="188" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B188" s="15" t="s">
@@ -5218,18 +5227,18 @@
       <c r="D188" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E188" s="16" t="s">
+      <c r="E188" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="F188" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G188" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H188" s="19"/>
-      <c r="I188" s="19"/>
-      <c r="J188" s="20"/>
+      <c r="F188" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G188" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H188" s="20"/>
+      <c r="I188" s="20"/>
+      <c r="J188" s="21"/>
     </row>
     <row r="189" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B189" s="15" t="s">
@@ -5241,18 +5250,18 @@
       <c r="D189" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E189" s="16" t="s">
+      <c r="E189" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="F189" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G189" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H189" s="19"/>
-      <c r="I189" s="19"/>
-      <c r="J189" s="20"/>
+      <c r="F189" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G189" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H189" s="20"/>
+      <c r="I189" s="20"/>
+      <c r="J189" s="21"/>
     </row>
     <row r="190" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B190" s="15" t="s">
@@ -5264,18 +5273,18 @@
       <c r="D190" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E190" s="16" t="s">
+      <c r="E190" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="F190" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G190" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H190" s="19"/>
-      <c r="I190" s="19"/>
-      <c r="J190" s="20"/>
+      <c r="F190" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G190" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H190" s="20"/>
+      <c r="I190" s="20"/>
+      <c r="J190" s="21"/>
     </row>
     <row r="191" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B191" s="15" t="s">
@@ -5287,18 +5296,18 @@
       <c r="D191" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E191" s="16" t="s">
+      <c r="E191" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="F191" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G191" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H191" s="19"/>
-      <c r="I191" s="19"/>
-      <c r="J191" s="20"/>
+      <c r="F191" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G191" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H191" s="20"/>
+      <c r="I191" s="20"/>
+      <c r="J191" s="21"/>
     </row>
     <row r="192" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B192" s="15" t="s">
@@ -5310,18 +5319,18 @@
       <c r="D192" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E192" s="16" t="s">
+      <c r="E192" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="F192" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G192" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H192" s="19"/>
-      <c r="I192" s="19"/>
-      <c r="J192" s="20"/>
+      <c r="F192" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G192" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H192" s="20"/>
+      <c r="I192" s="20"/>
+      <c r="J192" s="21"/>
     </row>
     <row r="193" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B193" s="15" t="s">
@@ -5333,18 +5342,18 @@
       <c r="D193" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E193" s="16" t="s">
+      <c r="E193" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="F193" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G193" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H193" s="19"/>
-      <c r="I193" s="19"/>
-      <c r="J193" s="20"/>
+      <c r="F193" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G193" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H193" s="20"/>
+      <c r="I193" s="20"/>
+      <c r="J193" s="21"/>
     </row>
     <row r="194" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B194" s="15" t="s">
@@ -5356,18 +5365,18 @@
       <c r="D194" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E194" s="16" t="s">
+      <c r="E194" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="F194" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G194" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H194" s="19"/>
-      <c r="I194" s="19"/>
-      <c r="J194" s="20"/>
+      <c r="F194" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G194" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H194" s="20"/>
+      <c r="I194" s="20"/>
+      <c r="J194" s="21"/>
     </row>
     <row r="195" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B195" s="15" t="s">
@@ -5379,18 +5388,18 @@
       <c r="D195" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E195" s="16" t="s">
+      <c r="E195" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="F195" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G195" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H195" s="19"/>
-      <c r="I195" s="19"/>
-      <c r="J195" s="20"/>
+      <c r="F195" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G195" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H195" s="20"/>
+      <c r="I195" s="20"/>
+      <c r="J195" s="21"/>
     </row>
     <row r="196" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B196" s="15" t="s">
@@ -5402,18 +5411,18 @@
       <c r="D196" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E196" s="16" t="s">
+      <c r="E196" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="F196" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G196" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H196" s="19"/>
-      <c r="I196" s="19"/>
-      <c r="J196" s="20"/>
+      <c r="F196" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G196" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H196" s="20"/>
+      <c r="I196" s="20"/>
+      <c r="J196" s="21"/>
     </row>
     <row r="197" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B197" s="15" t="s">
@@ -5425,18 +5434,18 @@
       <c r="D197" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E197" s="16" t="s">
+      <c r="E197" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="F197" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G197" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H197" s="19"/>
-      <c r="I197" s="19"/>
-      <c r="J197" s="20"/>
+      <c r="F197" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G197" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H197" s="20"/>
+      <c r="I197" s="20"/>
+      <c r="J197" s="21"/>
     </row>
     <row r="198" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B198" s="15" t="s">
@@ -5448,18 +5457,18 @@
       <c r="D198" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E198" s="16" t="s">
+      <c r="E198" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="F198" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G198" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H198" s="19"/>
-      <c r="I198" s="19"/>
-      <c r="J198" s="20"/>
+      <c r="F198" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G198" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H198" s="20"/>
+      <c r="I198" s="20"/>
+      <c r="J198" s="21"/>
     </row>
     <row r="199" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B199" s="15" t="s">
@@ -5471,18 +5480,18 @@
       <c r="D199" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E199" s="16" t="s">
+      <c r="E199" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="F199" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G199" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H199" s="19"/>
-      <c r="I199" s="19"/>
-      <c r="J199" s="20"/>
+      <c r="F199" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G199" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H199" s="20"/>
+      <c r="I199" s="20"/>
+      <c r="J199" s="21"/>
     </row>
     <row r="200" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B200" s="15" t="s">
@@ -5494,18 +5503,18 @@
       <c r="D200" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E200" s="16" t="s">
+      <c r="E200" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="F200" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G200" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H200" s="19"/>
-      <c r="I200" s="19"/>
-      <c r="J200" s="20"/>
+      <c r="F200" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G200" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H200" s="20"/>
+      <c r="I200" s="20"/>
+      <c r="J200" s="21"/>
     </row>
     <row r="201" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B201" s="15" t="s">
@@ -5517,18 +5526,18 @@
       <c r="D201" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E201" s="16" t="s">
+      <c r="E201" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="F201" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G201" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H201" s="19"/>
-      <c r="I201" s="19"/>
-      <c r="J201" s="20"/>
+      <c r="F201" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G201" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H201" s="20"/>
+      <c r="I201" s="20"/>
+      <c r="J201" s="21"/>
     </row>
     <row r="202" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B202" s="15" t="s">
@@ -5540,18 +5549,18 @@
       <c r="D202" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E202" s="16" t="s">
+      <c r="E202" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="F202" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G202" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H202" s="19"/>
-      <c r="I202" s="19"/>
-      <c r="J202" s="20"/>
+      <c r="F202" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G202" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H202" s="20"/>
+      <c r="I202" s="20"/>
+      <c r="J202" s="21"/>
     </row>
     <row r="203" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B203" s="15" t="s">
@@ -5563,18 +5572,18 @@
       <c r="D203" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E203" s="16" t="s">
+      <c r="E203" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="F203" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G203" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H203" s="19"/>
-      <c r="I203" s="19"/>
-      <c r="J203" s="20"/>
+      <c r="F203" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G203" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H203" s="20"/>
+      <c r="I203" s="20"/>
+      <c r="J203" s="21"/>
     </row>
     <row r="204" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B204" s="15" t="s">
@@ -5586,18 +5595,18 @@
       <c r="D204" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E204" s="16" t="s">
+      <c r="E204" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="F204" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G204" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H204" s="19"/>
-      <c r="I204" s="19"/>
-      <c r="J204" s="20"/>
+      <c r="F204" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G204" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H204" s="20"/>
+      <c r="I204" s="20"/>
+      <c r="J204" s="21"/>
     </row>
     <row r="205" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B205" s="15" t="s">
@@ -5609,18 +5618,18 @@
       <c r="D205" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E205" s="16" t="s">
+      <c r="E205" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="F205" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G205" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H205" s="19"/>
-      <c r="I205" s="19"/>
-      <c r="J205" s="20"/>
+      <c r="F205" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G205" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H205" s="20"/>
+      <c r="I205" s="20"/>
+      <c r="J205" s="21"/>
     </row>
     <row r="206" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B206" s="15" t="s">
@@ -5632,18 +5641,18 @@
       <c r="D206" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E206" s="16" t="s">
+      <c r="E206" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="F206" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G206" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H206" s="19"/>
-      <c r="I206" s="19"/>
-      <c r="J206" s="20"/>
+      <c r="F206" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G206" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H206" s="20"/>
+      <c r="I206" s="20"/>
+      <c r="J206" s="21"/>
     </row>
     <row r="207" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B207" s="15" t="s">
@@ -5655,18 +5664,18 @@
       <c r="D207" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E207" s="16" t="s">
+      <c r="E207" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="F207" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G207" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H207" s="19"/>
-      <c r="I207" s="19"/>
-      <c r="J207" s="20"/>
+      <c r="F207" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G207" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H207" s="20"/>
+      <c r="I207" s="20"/>
+      <c r="J207" s="21"/>
     </row>
     <row r="208" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B208" s="15" t="s">
@@ -5678,18 +5687,18 @@
       <c r="D208" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E208" s="16" t="s">
+      <c r="E208" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="F208" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G208" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H208" s="19"/>
-      <c r="I208" s="19"/>
-      <c r="J208" s="20"/>
+      <c r="F208" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G208" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H208" s="20"/>
+      <c r="I208" s="20"/>
+      <c r="J208" s="21"/>
     </row>
     <row r="209" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B209" s="15" t="s">
@@ -5701,18 +5710,18 @@
       <c r="D209" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E209" s="16" t="s">
+      <c r="E209" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="F209" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G209" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H209" s="19"/>
-      <c r="I209" s="19"/>
-      <c r="J209" s="20"/>
+      <c r="F209" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G209" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H209" s="20"/>
+      <c r="I209" s="20"/>
+      <c r="J209" s="21"/>
     </row>
     <row r="210" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B210" s="15" t="s">
@@ -5724,18 +5733,18 @@
       <c r="D210" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E210" s="16" t="s">
+      <c r="E210" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="F210" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G210" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H210" s="19"/>
-      <c r="I210" s="19"/>
-      <c r="J210" s="20"/>
+      <c r="F210" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G210" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H210" s="20"/>
+      <c r="I210" s="20"/>
+      <c r="J210" s="21"/>
     </row>
     <row r="211" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B211" s="15" t="s">
@@ -5747,18 +5756,18 @@
       <c r="D211" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E211" s="16" t="s">
+      <c r="E211" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="F211" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G211" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H211" s="19"/>
-      <c r="I211" s="19"/>
-      <c r="J211" s="20"/>
+      <c r="F211" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G211" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H211" s="20"/>
+      <c r="I211" s="20"/>
+      <c r="J211" s="21"/>
     </row>
     <row r="212" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B212" s="15" t="s">
@@ -5770,18 +5779,18 @@
       <c r="D212" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E212" s="16" t="s">
+      <c r="E212" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="F212" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G212" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H212" s="19"/>
-      <c r="I212" s="19"/>
-      <c r="J212" s="20"/>
+      <c r="F212" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G212" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H212" s="20"/>
+      <c r="I212" s="20"/>
+      <c r="J212" s="21"/>
     </row>
     <row r="213" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B213" s="15" t="s">
@@ -5793,18 +5802,18 @@
       <c r="D213" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E213" s="16" t="s">
+      <c r="E213" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="F213" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G213" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H213" s="19"/>
-      <c r="I213" s="19"/>
-      <c r="J213" s="20"/>
+      <c r="F213" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G213" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H213" s="20"/>
+      <c r="I213" s="20"/>
+      <c r="J213" s="21"/>
     </row>
     <row r="214" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B214" s="15" t="s">
@@ -5816,18 +5825,18 @@
       <c r="D214" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E214" s="16" t="s">
+      <c r="E214" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="F214" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G214" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H214" s="19"/>
-      <c r="I214" s="19"/>
-      <c r="J214" s="20"/>
+      <c r="F214" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G214" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H214" s="20"/>
+      <c r="I214" s="20"/>
+      <c r="J214" s="21"/>
     </row>
     <row r="215" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B215" s="15" t="s">
@@ -5839,18 +5848,18 @@
       <c r="D215" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E215" s="16" t="s">
+      <c r="E215" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="F215" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G215" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H215" s="19"/>
-      <c r="I215" s="19"/>
-      <c r="J215" s="20"/>
+      <c r="F215" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G215" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H215" s="20"/>
+      <c r="I215" s="20"/>
+      <c r="J215" s="21"/>
     </row>
     <row r="216" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B216" s="15" t="s">
@@ -5862,18 +5871,18 @@
       <c r="D216" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E216" s="16" t="s">
+      <c r="E216" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="F216" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G216" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H216" s="19"/>
-      <c r="I216" s="19"/>
-      <c r="J216" s="20"/>
+      <c r="F216" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G216" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H216" s="20"/>
+      <c r="I216" s="20"/>
+      <c r="J216" s="21"/>
     </row>
     <row r="217" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B217" s="15" t="s">
@@ -5885,18 +5894,18 @@
       <c r="D217" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E217" s="16" t="s">
+      <c r="E217" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="F217" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G217" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H217" s="19"/>
-      <c r="I217" s="19"/>
-      <c r="J217" s="20"/>
+      <c r="F217" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G217" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H217" s="20"/>
+      <c r="I217" s="20"/>
+      <c r="J217" s="21"/>
     </row>
     <row r="218" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B218" s="15" t="s">
@@ -5908,18 +5917,18 @@
       <c r="D218" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E218" s="16" t="s">
+      <c r="E218" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="F218" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G218" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H218" s="19"/>
-      <c r="I218" s="19"/>
-      <c r="J218" s="20"/>
+      <c r="F218" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G218" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H218" s="20"/>
+      <c r="I218" s="20"/>
+      <c r="J218" s="21"/>
     </row>
     <row r="219" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B219" s="15" t="s">
@@ -5931,18 +5940,18 @@
       <c r="D219" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E219" s="16" t="s">
+      <c r="E219" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="F219" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G219" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H219" s="19"/>
-      <c r="I219" s="19"/>
-      <c r="J219" s="20"/>
+      <c r="F219" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G219" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H219" s="20"/>
+      <c r="I219" s="20"/>
+      <c r="J219" s="21"/>
     </row>
     <row r="220" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B220" s="15" t="s">
@@ -5954,18 +5963,18 @@
       <c r="D220" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E220" s="16" t="s">
+      <c r="E220" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="F220" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G220" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H220" s="19"/>
-      <c r="I220" s="19"/>
-      <c r="J220" s="20"/>
+      <c r="F220" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G220" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H220" s="20"/>
+      <c r="I220" s="20"/>
+      <c r="J220" s="21"/>
     </row>
     <row r="221" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B221" s="15" t="s">
@@ -5977,18 +5986,18 @@
       <c r="D221" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E221" s="16" t="s">
+      <c r="E221" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="F221" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G221" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H221" s="19"/>
-      <c r="I221" s="19"/>
-      <c r="J221" s="20"/>
+      <c r="F221" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G221" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H221" s="20"/>
+      <c r="I221" s="20"/>
+      <c r="J221" s="21"/>
     </row>
     <row r="222" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B222" s="15" t="s">
@@ -6000,18 +6009,18 @@
       <c r="D222" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E222" s="16" t="s">
+      <c r="E222" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="F222" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G222" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H222" s="19"/>
-      <c r="I222" s="19"/>
-      <c r="J222" s="20"/>
+      <c r="F222" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G222" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H222" s="20"/>
+      <c r="I222" s="20"/>
+      <c r="J222" s="21"/>
     </row>
     <row r="223" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B223" s="15" t="s">
@@ -6023,18 +6032,18 @@
       <c r="D223" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E223" s="16" t="s">
+      <c r="E223" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="F223" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G223" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H223" s="19"/>
-      <c r="I223" s="19"/>
-      <c r="J223" s="20"/>
+      <c r="F223" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G223" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H223" s="20"/>
+      <c r="I223" s="20"/>
+      <c r="J223" s="21"/>
     </row>
     <row r="224" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B224" s="15" t="s">
@@ -6046,18 +6055,18 @@
       <c r="D224" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E224" s="16" t="s">
+      <c r="E224" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="F224" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G224" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H224" s="19"/>
-      <c r="I224" s="19"/>
-      <c r="J224" s="20"/>
+      <c r="F224" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G224" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H224" s="20"/>
+      <c r="I224" s="20"/>
+      <c r="J224" s="21"/>
     </row>
     <row r="225" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B225" s="15" t="s">
@@ -6069,18 +6078,18 @@
       <c r="D225" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E225" s="16" t="s">
+      <c r="E225" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="F225" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G225" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H225" s="19"/>
-      <c r="I225" s="19"/>
-      <c r="J225" s="20"/>
+      <c r="F225" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G225" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H225" s="20"/>
+      <c r="I225" s="20"/>
+      <c r="J225" s="21"/>
     </row>
     <row r="226" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B226" s="15" t="s">
@@ -6092,18 +6101,18 @@
       <c r="D226" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E226" s="16" t="s">
+      <c r="E226" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="F226" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G226" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H226" s="19"/>
-      <c r="I226" s="19"/>
-      <c r="J226" s="20"/>
+      <c r="F226" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G226" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H226" s="20"/>
+      <c r="I226" s="20"/>
+      <c r="J226" s="21"/>
     </row>
     <row r="227" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B227" s="15" t="s">
@@ -6115,18 +6124,18 @@
       <c r="D227" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E227" s="16" t="s">
+      <c r="E227" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="F227" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G227" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H227" s="19"/>
-      <c r="I227" s="19"/>
-      <c r="J227" s="20"/>
+      <c r="F227" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G227" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H227" s="20"/>
+      <c r="I227" s="20"/>
+      <c r="J227" s="21"/>
     </row>
     <row r="228" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B228" s="15" t="s">
@@ -6138,18 +6147,18 @@
       <c r="D228" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E228" s="16" t="s">
+      <c r="E228" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="F228" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G228" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H228" s="19"/>
-      <c r="I228" s="19"/>
-      <c r="J228" s="20"/>
+      <c r="F228" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G228" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H228" s="20"/>
+      <c r="I228" s="20"/>
+      <c r="J228" s="21"/>
     </row>
     <row r="229" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B229" s="15" t="s">
@@ -6161,18 +6170,18 @@
       <c r="D229" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E229" s="16" t="s">
+      <c r="E229" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="F229" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G229" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H229" s="19"/>
-      <c r="I229" s="19"/>
-      <c r="J229" s="20"/>
+      <c r="F229" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G229" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H229" s="20"/>
+      <c r="I229" s="20"/>
+      <c r="J229" s="21"/>
     </row>
     <row r="230" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B230" s="15" t="s">
@@ -6184,18 +6193,18 @@
       <c r="D230" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E230" s="16" t="s">
+      <c r="E230" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="F230" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G230" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H230" s="19"/>
-      <c r="I230" s="19"/>
-      <c r="J230" s="20"/>
+      <c r="F230" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G230" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H230" s="20"/>
+      <c r="I230" s="20"/>
+      <c r="J230" s="21"/>
     </row>
     <row r="231" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B231" s="15" t="s">
@@ -6207,18 +6216,18 @@
       <c r="D231" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E231" s="16" t="s">
+      <c r="E231" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="F231" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G231" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H231" s="19"/>
-      <c r="I231" s="19"/>
-      <c r="J231" s="20"/>
+      <c r="F231" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G231" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H231" s="20"/>
+      <c r="I231" s="20"/>
+      <c r="J231" s="21"/>
     </row>
     <row r="232" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B232" s="15" t="s">
@@ -6230,18 +6239,18 @@
       <c r="D232" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E232" s="16" t="s">
+      <c r="E232" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="F232" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G232" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H232" s="19"/>
-      <c r="I232" s="19"/>
-      <c r="J232" s="20"/>
+      <c r="F232" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G232" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H232" s="20"/>
+      <c r="I232" s="20"/>
+      <c r="J232" s="21"/>
     </row>
     <row r="233" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B233" s="15" t="s">
@@ -6253,18 +6262,18 @@
       <c r="D233" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E233" s="16" t="s">
+      <c r="E233" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="F233" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G233" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H233" s="19"/>
-      <c r="I233" s="19"/>
-      <c r="J233" s="20"/>
+      <c r="F233" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G233" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H233" s="20"/>
+      <c r="I233" s="20"/>
+      <c r="J233" s="21"/>
     </row>
     <row r="234" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B234" s="15" t="s">
@@ -6276,18 +6285,18 @@
       <c r="D234" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E234" s="16" t="s">
+      <c r="E234" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="F234" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G234" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H234" s="19"/>
-      <c r="I234" s="19"/>
-      <c r="J234" s="20"/>
+      <c r="F234" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G234" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H234" s="20"/>
+      <c r="I234" s="20"/>
+      <c r="J234" s="21"/>
     </row>
     <row r="235" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B235" s="15" t="s">
@@ -6299,18 +6308,18 @@
       <c r="D235" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E235" s="16" t="s">
+      <c r="E235" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="F235" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G235" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H235" s="19"/>
-      <c r="I235" s="19"/>
-      <c r="J235" s="20"/>
+      <c r="F235" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G235" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H235" s="20"/>
+      <c r="I235" s="20"/>
+      <c r="J235" s="21"/>
     </row>
     <row r="236" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B236" s="15" t="s">
@@ -6322,18 +6331,18 @@
       <c r="D236" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E236" s="16" t="s">
+      <c r="E236" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="F236" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G236" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H236" s="19"/>
-      <c r="I236" s="19"/>
-      <c r="J236" s="20"/>
+      <c r="F236" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G236" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H236" s="20"/>
+      <c r="I236" s="20"/>
+      <c r="J236" s="21"/>
     </row>
     <row r="237" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B237" s="15" t="s">
@@ -6345,18 +6354,18 @@
       <c r="D237" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E237" s="16" t="s">
+      <c r="E237" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="F237" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G237" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H237" s="19"/>
-      <c r="I237" s="19"/>
-      <c r="J237" s="20"/>
+      <c r="F237" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G237" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H237" s="20"/>
+      <c r="I237" s="20"/>
+      <c r="J237" s="21"/>
     </row>
     <row r="238" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B238" s="15" t="s">
@@ -6368,18 +6377,18 @@
       <c r="D238" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E238" s="16" t="s">
+      <c r="E238" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="F238" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G238" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H238" s="19"/>
-      <c r="I238" s="19"/>
-      <c r="J238" s="20"/>
+      <c r="F238" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G238" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H238" s="20"/>
+      <c r="I238" s="20"/>
+      <c r="J238" s="21"/>
     </row>
     <row r="239" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B239" s="15" t="s">
@@ -6391,18 +6400,18 @@
       <c r="D239" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E239" s="16" t="s">
+      <c r="E239" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="F239" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G239" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H239" s="19"/>
-      <c r="I239" s="19"/>
-      <c r="J239" s="20"/>
+      <c r="F239" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G239" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H239" s="20"/>
+      <c r="I239" s="20"/>
+      <c r="J239" s="21"/>
     </row>
     <row r="240" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B240" s="15" t="s">
@@ -6414,18 +6423,18 @@
       <c r="D240" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E240" s="16" t="s">
+      <c r="E240" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="F240" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G240" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H240" s="19"/>
-      <c r="I240" s="19"/>
-      <c r="J240" s="20"/>
+      <c r="F240" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G240" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H240" s="20"/>
+      <c r="I240" s="20"/>
+      <c r="J240" s="21"/>
     </row>
     <row r="241" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B241" s="15" t="s">
@@ -6437,18 +6446,18 @@
       <c r="D241" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E241" s="16" t="s">
+      <c r="E241" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="F241" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G241" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H241" s="19"/>
-      <c r="I241" s="19"/>
-      <c r="J241" s="20"/>
+      <c r="F241" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G241" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H241" s="20"/>
+      <c r="I241" s="20"/>
+      <c r="J241" s="21"/>
     </row>
     <row r="242" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B242" s="15" t="s">
@@ -6460,18 +6469,18 @@
       <c r="D242" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E242" s="16" t="s">
+      <c r="E242" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="F242" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G242" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H242" s="19"/>
-      <c r="I242" s="19"/>
-      <c r="J242" s="20"/>
+      <c r="F242" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G242" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H242" s="20"/>
+      <c r="I242" s="20"/>
+      <c r="J242" s="21"/>
     </row>
     <row r="243" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B243" s="15" t="s">
@@ -6483,18 +6492,18 @@
       <c r="D243" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E243" s="16" t="s">
+      <c r="E243" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="F243" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G243" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H243" s="19"/>
-      <c r="I243" s="19"/>
-      <c r="J243" s="20"/>
+      <c r="F243" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G243" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H243" s="20"/>
+      <c r="I243" s="20"/>
+      <c r="J243" s="21"/>
     </row>
     <row r="244" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B244" s="15" t="s">
@@ -6506,18 +6515,18 @@
       <c r="D244" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E244" s="16" t="s">
+      <c r="E244" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="F244" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G244" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H244" s="19"/>
-      <c r="I244" s="19"/>
-      <c r="J244" s="20"/>
+      <c r="F244" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G244" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H244" s="20"/>
+      <c r="I244" s="20"/>
+      <c r="J244" s="21"/>
     </row>
     <row r="245" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B245" s="15" t="s">
@@ -6529,18 +6538,18 @@
       <c r="D245" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E245" s="16" t="s">
+      <c r="E245" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="F245" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G245" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H245" s="19"/>
-      <c r="I245" s="19"/>
-      <c r="J245" s="20"/>
+      <c r="F245" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G245" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H245" s="20"/>
+      <c r="I245" s="20"/>
+      <c r="J245" s="21"/>
     </row>
     <row r="246" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B246" s="15" t="s">
@@ -6552,18 +6561,18 @@
       <c r="D246" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E246" s="16" t="s">
+      <c r="E246" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="F246" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G246" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H246" s="19"/>
-      <c r="I246" s="19"/>
-      <c r="J246" s="20"/>
+      <c r="F246" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G246" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H246" s="20"/>
+      <c r="I246" s="20"/>
+      <c r="J246" s="21"/>
     </row>
     <row r="247" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B247" s="15" t="s">
@@ -6575,18 +6584,18 @@
       <c r="D247" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E247" s="16" t="s">
+      <c r="E247" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="F247" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G247" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H247" s="19"/>
-      <c r="I247" s="19"/>
-      <c r="J247" s="20"/>
+      <c r="F247" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G247" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H247" s="20"/>
+      <c r="I247" s="20"/>
+      <c r="J247" s="21"/>
     </row>
     <row r="248" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B248" s="15" t="s">
@@ -6598,18 +6607,18 @@
       <c r="D248" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E248" s="16" t="s">
+      <c r="E248" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="F248" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G248" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H248" s="19"/>
-      <c r="I248" s="19"/>
-      <c r="J248" s="20"/>
+      <c r="F248" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G248" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H248" s="20"/>
+      <c r="I248" s="20"/>
+      <c r="J248" s="21"/>
     </row>
     <row r="249" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B249" s="15" t="s">
@@ -6621,18 +6630,18 @@
       <c r="D249" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E249" s="16" t="s">
+      <c r="E249" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="F249" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G249" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H249" s="19"/>
-      <c r="I249" s="19"/>
-      <c r="J249" s="20"/>
+      <c r="F249" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G249" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H249" s="20"/>
+      <c r="I249" s="20"/>
+      <c r="J249" s="21"/>
     </row>
     <row r="250" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B250" s="15" t="s">
@@ -6644,18 +6653,18 @@
       <c r="D250" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E250" s="16" t="s">
+      <c r="E250" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="F250" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G250" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H250" s="19"/>
-      <c r="I250" s="19"/>
-      <c r="J250" s="20"/>
+      <c r="F250" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G250" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H250" s="20"/>
+      <c r="I250" s="20"/>
+      <c r="J250" s="21"/>
     </row>
     <row r="251" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B251" s="15" t="s">
@@ -6667,18 +6676,18 @@
       <c r="D251" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E251" s="16" t="s">
+      <c r="E251" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="F251" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G251" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H251" s="19"/>
-      <c r="I251" s="19"/>
-      <c r="J251" s="20"/>
+      <c r="F251" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G251" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H251" s="20"/>
+      <c r="I251" s="20"/>
+      <c r="J251" s="21"/>
     </row>
     <row r="252" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B252" s="15" t="s">
@@ -6690,18 +6699,18 @@
       <c r="D252" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E252" s="16" t="s">
+      <c r="E252" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="F252" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G252" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H252" s="19"/>
-      <c r="I252" s="19"/>
-      <c r="J252" s="20"/>
+      <c r="F252" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G252" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H252" s="20"/>
+      <c r="I252" s="20"/>
+      <c r="J252" s="21"/>
     </row>
     <row r="253" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B253" s="15" t="s">
@@ -6713,18 +6722,18 @@
       <c r="D253" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E253" s="16" t="s">
+      <c r="E253" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="F253" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G253" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H253" s="19"/>
-      <c r="I253" s="19"/>
-      <c r="J253" s="20"/>
+      <c r="F253" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G253" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H253" s="20"/>
+      <c r="I253" s="20"/>
+      <c r="J253" s="21"/>
     </row>
     <row r="254" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B254" s="15" t="s">
@@ -6736,70 +6745,139 @@
       <c r="D254" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E254" s="16" t="s">
+      <c r="E254" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="F254" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G254" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H254" s="19"/>
-      <c r="I254" s="19"/>
-      <c r="J254" s="20"/>
+      <c r="F254" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G254" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H254" s="20"/>
+      <c r="I254" s="20"/>
+      <c r="J254" s="21"/>
     </row>
     <row r="255" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B255" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C255" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D255" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E255" s="22" t="s">
+      <c r="B255" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C255" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D255" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E255" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="F255" s="24">
-        <v>33125</v>
-      </c>
-      <c r="G255" s="24">
-        <v>828116</v>
-      </c>
-      <c r="H255" s="25"/>
-      <c r="I255" s="25"/>
-      <c r="J255" s="26"/>
-    </row>
-    <row r="260" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B260" s="32" t="s">
+      <c r="F255" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G255" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H255" s="20"/>
+      <c r="I255" s="20"/>
+      <c r="J255" s="21"/>
+    </row>
+    <row r="256" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B256" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C256" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D256" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E256" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="F256" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G256" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H256" s="20"/>
+      <c r="I256" s="20"/>
+      <c r="J256" s="21"/>
+    </row>
+    <row r="257" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B257" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C257" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D257" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E257" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="F257" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G257" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H257" s="20"/>
+      <c r="I257" s="20"/>
+      <c r="J257" s="21"/>
+    </row>
+    <row r="258" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B258" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C258" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D258" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E258" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="F258" s="26">
+        <v>33125</v>
+      </c>
+      <c r="G258" s="26">
+        <v>828116</v>
+      </c>
+      <c r="H258" s="27"/>
+      <c r="I258" s="27"/>
+      <c r="J258" s="28"/>
+    </row>
+    <row r="263" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B263" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="C263" s="34"/>
+      <c r="H263" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I263" s="1"/>
+      <c r="J263" s="1"/>
+    </row>
+    <row r="264" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B264" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="C260" s="32"/>
-      <c r="H260" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="I260" s="1"/>
-      <c r="J260" s="1"/>
-    </row>
-    <row r="261" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B261" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="C261" s="32"/>
-      <c r="H261" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="I261" s="1"/>
-      <c r="J261" s="1"/>
+      <c r="C264" s="34"/>
+      <c r="H264" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I264" s="1"/>
+      <c r="J264" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B261:C261"/>
-    <mergeCell ref="B260:C260"/>
-    <mergeCell ref="H261:J261"/>
-    <mergeCell ref="H260:J260"/>
+    <mergeCell ref="B264:C264"/>
+    <mergeCell ref="B263:C263"/>
+    <mergeCell ref="H264:J264"/>
+    <mergeCell ref="H263:J263"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
